--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="422">
   <si>
     <t>section</t>
   </si>
@@ -34,7 +34,10 @@
     <t xml:space="preserve">Whether there exists an Information security policy, ‎which is approved by the management, published and ‎communicated as appropriate to all employees. </t>
   </si>
   <si>
-    <t>This is answer 1. With some styling.</t>
+    <t>The answer to the Universe is 42.</t>
+  </si>
+  <si>
+    <t>This is a bogus finding.</t>
   </si>
   <si>
     <t>Status 1, woot woot</t>
@@ -1277,6 +1280,12 @@
   </si>
   <si>
     <t>Whether information system audit tools are separated ‎from development and operational systems, unless ‎given an appropriate level of additional protection.‎</t>
+  </si>
+  <si>
+    <t>This question is stupido.</t>
+  </si>
+  <si>
+    <t>Non Compliant</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1697,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,1875 +1709,1881 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B120" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B167" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B168" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B170" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B173" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B175" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B176" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B177" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B178" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B181" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B184" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B185" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B186" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B187" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B188" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B190" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B191" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B192" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B193" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B194" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B195" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B198" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B201" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B202" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B205" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B206" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B207" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B208" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B209" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B210" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B211" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B212" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B213" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B214" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B215" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B216" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B217" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B218" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B219" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B220" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B221" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B222" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B223" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B224" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B225" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B226" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B227" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B229" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B230" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B231" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B232" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B234" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B235" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>416</v>
-      </c>
       <c r="B236" t="s">
-        <v>418</v>
+        <v>419</v>
+      </c>
+      <c r="D236" t="s">
+        <v>420</v>
+      </c>
+      <c r="E236" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="414">
   <si>
     <t>section</t>
   </si>
@@ -34,37 +34,19 @@
     <t xml:space="preserve">Whether there exists an Information security policy, ‎which is approved by the management, published and ‎communicated as appropriate to all employees. </t>
   </si>
   <si>
-    <t>The answer to the Universe is 42.</t>
-  </si>
-  <si>
-    <t>This is a bogus finding.</t>
-  </si>
-  <si>
-    <t>Status 1, woot woot</t>
+    <t>answer1</t>
   </si>
   <si>
     <t>Whether the policy states management commitment ‎and sets out the organizational approach to managing ‎information security.‎</t>
   </si>
   <si>
-    <t>Woot</t>
-  </si>
-  <si>
     <t>Review of Informational Security Policy</t>
   </si>
   <si>
     <t>Whether the Information Security Policy is reviewed at ‎planned intervals, or if significant changes occur to ‎ensure its continuing suitability, adequacy and ‎effectiveness.</t>
   </si>
   <si>
-    <t>asdfa</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
     <t>Whether the Information Security policy has an owner, ‎who has approved management responsibility for ‎development, review and evaluation of the security policy.‎</t>
-  </si>
-  <si>
-    <t>asasdf</t>
   </si>
   <si>
     <t>Whether any defined Information Security Policy ‎review procedures exist and do they include ‎requirements for the management review. ‎</t>
@@ -1280,12 +1262,6 @@
   </si>
   <si>
     <t>Whether information system audit tools are separated ‎from development and operational systems, unless ‎given an appropriate level of additional protection.‎</t>
-  </si>
-  <si>
-    <t>This question is stupido.</t>
-  </si>
-  <si>
-    <t>Non Compliant</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1697,1893 +1673,1869 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B151" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B156" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B159" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B160" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B169" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B170" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B171" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B172" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B173" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B174" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B175" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B176" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B177" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B180" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B182" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B184" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B185" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B186" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B187" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B188" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B189" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B190" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B191" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B192" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B193" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B194" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B195" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B196" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B197" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B198" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B199" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B201" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B202" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B203" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B204" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B205" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B206" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B208" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B209" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B210" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B211" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B212" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B213" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B215" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B216" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B217" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B218" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B219" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B220" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B221" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B222" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B224" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B225" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B226" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B227" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B228" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B229" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B230" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B231" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B232" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B233" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B234" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B235" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B236" t="s">
-        <v>419</v>
-      </c>
-      <c r="D236" t="s">
-        <v>420</v>
-      </c>
-      <c r="E236" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="415">
   <si>
     <t>section</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Whether there exists an Information security policy, ‎which is approved by the management, published and ‎communicated as appropriate to all employees. </t>
   </si>
   <si>
-    <t>answer1</t>
-  </si>
-  <si>
     <t>Whether the policy states management commitment ‎and sets out the organizational approach to managing ‎information security.‎</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t>Whether the Information Security Policy is reviewed at ‎planned intervals, or if significant changes occur to ‎ensure its continuing suitability, adequacy and ‎effectiveness.</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Whether the Information Security policy has an owner, ‎who has approved management responsibility for ‎development, review and evaluation of the security policy.‎</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Does this address the requirement to protect the ‎confidential information using legal enforceable terms?</t>
+  </si>
+  <si>
+    <t>This is an answer.</t>
   </si>
   <si>
     <t>Contact with Authorities</t>
@@ -1638,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E235"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1663,15 +1666,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,20 +1679,23 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1778,1764 +1781,1767 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B142" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B143" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B161" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B163" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B166" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B174" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B175" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B177" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B178" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B179" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B180" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B181" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B182" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B183" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B184" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B185" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B186" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B187" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B188" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B189" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B190" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B191" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B192" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B193" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B194" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B195" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B197" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B198" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B199" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B200" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B201" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B202" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B205" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B206" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B207" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B208" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B209" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B210" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B211" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B212" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B213" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B214" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B215" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B216" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B217" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B218" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B219" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B220" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B221" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B222" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B223" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B224" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B225" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B226" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B227" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B228" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B229" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B230" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B231" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B232" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B233" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B235" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>411</v>
-      </c>
-      <c r="B236" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="652">
   <si>
     <t>domain</t>
   </si>
@@ -19,7 +19,7 @@
     <t>objective</t>
   </si>
   <si>
-    <t>policy derived</t>
+    <t>source</t>
   </si>
   <si>
     <t>reason</t>
@@ -34,6 +34,9 @@
     <t>auditor notes</t>
   </si>
   <si>
+    <t>answer</t>
+  </si>
+  <si>
     <t>policy defined</t>
   </si>
   <si>
@@ -52,227 +55,1270 @@
     <t>Security Policy</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether there exists an Information security policy, ‎which is approved by the management, published and ‎communicated as appropriate to all employees. </t>
-  </si>
-  <si>
-    <t>answer1</t>
-  </si>
-  <si>
-    <t>Whether the policy states management commitment ‎and sets out the organizational approach to managing ‎information security.‎</t>
-  </si>
-  <si>
-    <t>Whether the Information Security Policy is reviewed at ‎planned intervals, or if significant changes occur to ‎ensure its continuing suitability, adequacy and ‎effectiveness.</t>
-  </si>
-  <si>
-    <t>Whether the Information Security policy has an owner, ‎who has approved management responsibility for ‎development, review and evaluation of the security policy.‎</t>
-  </si>
-  <si>
-    <t>Whether any defined Information Security Policy ‎review procedures exist and do they include ‎requirements for the management review. ‎</t>
-  </si>
-  <si>
-    <t>Whether the results of the management review are taken into account.‎</t>
-  </si>
-  <si>
-    <t>Whether management approval is obtained for the ‎revised policy.‎</t>
-  </si>
-  <si>
-    <t>Whether the security policy clearly defines information security responsibilities for all personnel.</t>
-  </si>
-  <si>
-    <t>Whether a risk assesment process is implemented that:  (1) is performed at least annually and upon significant changes to the environment.  (2) Identifies critical assets, threats, and vulnerabilities, and (3) results in a formal risk assesment.</t>
+    <t>Information security policy document</t>
+  </si>
+  <si>
+    <t>Management should set a clear policy direction in line with business objectives and demonstrate support for, and commitment to, information security through the issue and maintenance of an information security policy across the organization.</t>
+  </si>
+  <si>
+    <t>Has an information security policy document been approved by management, and published and communicated to all employees and relevant external parties?</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>Does the information security policy document state management's commitment and set out the organization's approach to managing information security?</t>
+  </si>
+  <si>
+    <t>Some random notes</t>
+  </si>
+  <si>
+    <t>this is the third response</t>
+  </si>
+  <si>
+    <t>Does the information security policy document contain a  statement concerning a definition of information security, its overall objectives and scope and the importance of security as an enabling mechanism for information sharing?</t>
+  </si>
+  <si>
+    <t>Does the information security policy document contain a  statement concerning a statement of management intent, supporting the goals and principles of information security in line with the business strategy and objectives?</t>
+  </si>
+  <si>
+    <t>Does the information security policy document contain a  statement concerning a framework for setting control objectives and controls, including the structure of risk assessment and risk management?</t>
+  </si>
+  <si>
+    <t>Does the information security policy document contain a  statement concerning a brief explanation of the security policies, principles, standards, and compliance requirements of particular importance to the organization, including:  (1) compliance with legislative, regulatory, and contractual requirements; (2) security education, training, and awareness requirements; (3) business continuity management; (4) consequences of information security policy violations?</t>
+  </si>
+  <si>
+    <t>Does the information security policy document contain a  statement concerning a definition of general and specific responsibilities for information security management, including reporting information security incidents?</t>
+  </si>
+  <si>
+    <t>Does the information security policy document contain a  statement concerning references to documentation which may support the policy, e.g. more detailed security policies and procedures for specific information systems or security rules users should comply with?</t>
+  </si>
+  <si>
+    <t>Review of Informational Security Policy</t>
+  </si>
+  <si>
+    <t>Has this information security policy been communicated throughout the organization to users in a form that is relevant, accessible and understandable to the intended reader?</t>
+  </si>
+  <si>
+    <t>If the information security policy is distributed outside the organization, has care been taken not to disclose sensitive information?</t>
+  </si>
+  <si>
+    <t>Has the information security policy been reviewed at planned intervals or if significant changes occur to ensure its continuing suitability, adequacy, and effectiveness?</t>
+  </si>
+  <si>
+    <t>Does the information security policy have an owner who has approved management responsibility for the development, review, and evaluation of the security policy?</t>
+  </si>
+  <si>
+    <t>Are there defined management review procedures, including a schedule or period of the review?</t>
+  </si>
+  <si>
+    <t>Is management approval for the revised policy obtained?</t>
   </si>
   <si>
     <t>Organization of Information Security</t>
   </si>
   <si>
-    <t>Whether management demonstrates active support for security measures within the organization. This can be done via clear direction, demonstrated commitment, explicit assignment and acknowledgement of information security responsibilities.</t>
-  </si>
-  <si>
-    <t>Whether information security activities are coordinated by representatives from diverse parts of the organization, with pertinent roles and responsibilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether responsibilities for the protection of individual assets, and for carrying out specific security processes, were clearly identified and defined. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether management authorization process is defined and implemented for any new information processing facility within the organization. </t>
-  </si>
-  <si>
-    <t>Whether the organization’s need for Confidentiality or ‎Non-Disclosure Agreement (NDA) for protection of ‎information is clearly defined and regularly reviewed.</t>
-  </si>
-  <si>
-    <t>Does this address the requirement to protect the ‎confidential information using legal enforceable terms?</t>
-  </si>
-  <si>
-    <t>Whether there exists a procedure that describes when, and by whom: relevant authorities such as Law enforcement, fire department etc., should be contacted, and how the incident should be reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether appropriate contacts with special interest groups or other specialist security forums, and professional associations are maintained. </t>
-  </si>
-  <si>
-    <t>Whether the organization’s approach to managing information security, and its implementation, is reviewed independently at planned intervals, or when major changes to security implementation occur.</t>
-  </si>
-  <si>
-    <t>Whether risks to the organization’s information and information processing facility, from a process involving external party access, is identified and appropriate control measures implemented before granting access.   Iron Mountain?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether all identified security requirements are fulfilled before granting customer access to the organization’s information or assets. </t>
-  </si>
-  <si>
-    <t>Whether the agreement with third parties, involving accessing, processing, communicating or managing the organization’s information or information processing facility, or introducing products or services to information processing facility, complies with all appropriate security requirements.</t>
+    <t>Management Commitment to Information Security</t>
+  </si>
+  <si>
+    <t>A management framework should be established to initiate and control the implementation of information security within the organization.
+Management should approve the information security policy, assign security roles and co-ordinate and review the implementation of security across the organization.
+If necessary, a source of specialist information security advice should be established and made available within the organization. Contacts with external security specialists or groups, including relevant authorities, should be developed to keep up with industrial trends, monitor standards and assessment methods and provide suitable liaison points when handling information security incidents.
+A multi-disciplinary approach to information security should be encouraged.</t>
+  </si>
+  <si>
+    <t>Does management actively support security within the organization through clear direction, demonstrated commitment, explicit assignment, and acknowledgment of information security responsibilities?</t>
+  </si>
+  <si>
+    <t>Does management ensure that information security goals are identified, meet the organizational requirements, and are integrated in relevant processes?</t>
+  </si>
+  <si>
+    <t>Does management formulate, review, and approve information security policy?</t>
+  </si>
+  <si>
+    <t>Does management review the effectiveness of the implementation of the information security policy?</t>
+  </si>
+  <si>
+    <t>Does management provide clear direction and visible management support for security initiatives?</t>
+  </si>
+  <si>
+    <t>Does management provide the resources needed for information security?</t>
+  </si>
+  <si>
+    <t>Does management approve assignment of specific roles and responsibilities for information security across the organization?</t>
+  </si>
+  <si>
+    <t>Does management initiate plans and programs to maintain information security awareness?</t>
+  </si>
+  <si>
+    <t>Does management ensure that the implementation of information security controls is co-ordinated across the organization?</t>
+  </si>
+  <si>
+    <t>Does management identify the needs for internal or external specialist information security advice, and review and coordinate results of the advice throughout the organization?</t>
+  </si>
+  <si>
+    <t>Information Security coordination</t>
+  </si>
+  <si>
+    <t>Are information security activities co-ordinated by representatives from different parts of the organization with relevant roles and job functions?</t>
+  </si>
+  <si>
+    <t>Does information security coordination involve the co-operation and collaboration of managers, users, administrators, application designers, auditors and security personnel, and specialist skills in areas such as insurance, legal issues, human resources, IT or risk management?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity ensure that security activities are executed in compliance with the information security policy?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity identify how to handle non-compliances?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity approve methodologies and processes for information security, (e.g. risk assessment and information classification)?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity identify significant threat changes and exposure of information and information processing facilities to threats?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity assess the adequacy and co-ordinate the implementation of information security controls?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity effectively promote information security education, training and awareness throughout the organization?</t>
+  </si>
+  <si>
+    <t>Does the information security coordination activity evaluate information received from the monitoring and reviewing of information security incidents, and recommend appropriate actions in response to identified information security incidents?</t>
+  </si>
+  <si>
+    <t>If the organization does not use a separate cross-functional group, (e.g. because such a group is not appropriate for the organization‟s size), are the actions described above undertaken by another suitable management body or individual manager?</t>
+  </si>
+  <si>
+    <t>Allocation of Information Security responsibilities</t>
+  </si>
+  <si>
+    <t>Are all information security responsibilities clearly defined?</t>
+  </si>
+  <si>
+    <t>Is allocation of information security responsibilities done in accordance with the information security policy?</t>
+  </si>
+  <si>
+    <t>Are responsibilities for the protection of individual assets and for carrying out specific security processes clearly identified?</t>
+  </si>
+  <si>
+    <t>Is this responsibility supplemented, where necessary, with more detailed guidance for specific sites and information processing facilities?</t>
+  </si>
+  <si>
+    <t>Are local responsibilities for the protection of assets and for carrying out specific security processes, such as business continuity planning, clearly defined?</t>
+  </si>
+  <si>
+    <t>Do individuals with allocated security responsibilities who delegate security tasks to others; determine that any delegated tasks have been correctly performed?</t>
+  </si>
+  <si>
+    <t>Are areas for which individuals are responsible clearly stated?</t>
+  </si>
+  <si>
+    <t>Are the assets and security processes associated with each particular system identified and clearly defined?</t>
+  </si>
+  <si>
+    <t>Is the entity responsible for each asset or security process assigned and the details of this responsibility documented?</t>
+  </si>
+  <si>
+    <t>Are authorization levels clearly defined and documented?</t>
+  </si>
+  <si>
+    <t>Authorization process for Information processing facilities</t>
+  </si>
+  <si>
+    <t>Has a management authorization process for new information processing facilities been defined and implemented?</t>
+  </si>
+  <si>
+    <t>Has the authorization process considered whether new facilities should have appropriate user management authorization, authorizing their purpose and use?</t>
+  </si>
+  <si>
+    <t>Has the authorization process considered whether authorization should also be obtained from the manager responsible for maintaining the local information system security environment to ensure that all relevant security policies and requirements are met?</t>
+  </si>
+  <si>
+    <t>Has the authorization process considered whether where necessary, hardware and software should be checked to ensure that they are compatible with other system components?</t>
+  </si>
+  <si>
+    <t>Has the authorization process considered whether the use of personal or privately owned information processing facilities, (e.g. laptops, home-computers or hand-held devices, for processing business information), may introduce new vulnerabilities and necessary controls should be identified and implemented?</t>
+  </si>
+  <si>
+    <t>This is response 50</t>
+  </si>
+  <si>
+    <t>Confidentiality Agreements</t>
+  </si>
+  <si>
+    <t>Are requirements for confidentiality or non-disclosure agreements reflecting the organization‟s needs for the protection of information identified and regularly reviewed?</t>
+  </si>
+  <si>
+    <t>This is response 51fnasbdfasdfhb</t>
+  </si>
+  <si>
+    <t>Do confidentiality or non-disclosure agreements address the requirement to protect confidential information using legally enforceable terms?</t>
+  </si>
+  <si>
+    <t>Are the following elements considered when identifying requirements for confidentiality or nondisclosure agreements:
+a) a definition of the information to be protected (e.g. confidential information);
+b) expected duration of an agreement, including cases where confidentiality might need to be maintained indefinitely;
+c) required actions when an agreement is terminated;
+d) responsibilities and actions of signatories to avoid unauthorized information disclosure (such as „need to know‟);
+e) ownership of information, trade secrets and intellectual property, and how this relates to the protection of confidential information;
+f) the permitted use of confidential information, and rights of the signatory to use information;
+g) the right to audit and monitor activities that involve confidential information;
+h) process for notification and reporting of unauthorized disclosure or confidential information breaches;
+i) terms for information to be returned or destroyed at agreement cessation; and
+j) expected actions to be taken in case of a breach of this agreement?</t>
+  </si>
+  <si>
+    <t>Do confidentiality and non-disclosure agreements comply with all applicable laws and regulations for the jurisdiction to which it applies?</t>
+  </si>
+  <si>
+    <t>Are requirements for confidentiality and non-disclosure agreements reviewed periodically and when changes occur that influence these requirements?</t>
+  </si>
+  <si>
+    <t>Contact with Authorities</t>
+  </si>
+  <si>
+    <t>Are appropriate contacts with relevant authorities maintained?</t>
+  </si>
+  <si>
+    <t>Does the organization have procedures in place that specify when and by whom authorities (e.g. law enforcement, fire department, and supervisory authorities) should be contacted?</t>
+  </si>
+  <si>
+    <t>Has the organization identified how information security incidents should be reported in a timely manner if it is suspected that laws may have been broken?</t>
+  </si>
+  <si>
+    <t>Contact with special interest groups</t>
+  </si>
+  <si>
+    <t>Are appropriate contacts with special interest groups or other specialist security forums and professional associations maintained?</t>
+  </si>
+  <si>
+    <t>Is membership in special interest groups or forums considered as a means to:
+a) improve knowledge about best practices and staying up to date with relevant security information;
+b) ensure the understanding of the information security environment is current and complete;
+c) receive early warnings of alerts, advisories, and patches pertaining to attacks and vulnerabilities;
+d) gain access to specialist information security advice;
+e) share and exchange information about new technologies, products, threats, or vulnerabilities;
+f) provide suitable liaison points when dealing with information security incidents?</t>
+  </si>
+  <si>
+    <t>If information sharing agreements are established to improve cooperation and coordination of security issues, do those agreements identify requirements for the protection of sensitive information?</t>
+  </si>
+  <si>
+    <t>Independent review of Information Security</t>
+  </si>
+  <si>
+    <t>Is the organization's approach to managing information security and its implementation (i.e. control objectives, controls, policies, processes, and procedures for information security) reviewed independently at planned intervals, or when significant changes to the security implementation occur?</t>
+  </si>
+  <si>
+    <t>Is the independent review initiated by management?</t>
+  </si>
+  <si>
+    <t>Does the review include assessing opportunities for improvement and the need for changes to the approach to security, including the policy and control objectives?</t>
+  </si>
+  <si>
+    <t>Is the review carried out by individuals independent of the area under review, (e.g. the internal audit function, an independent manager or a third party organization specializing in such reviews)?</t>
+  </si>
+  <si>
+    <t>Do the individuals carrying out these reviews have the appropriate skills and experience?</t>
+  </si>
+  <si>
+    <t>Are the results of the independent review recorded and reported to the management who initiated the review?  Are these records maintained?</t>
+  </si>
+  <si>
+    <t>Does management consider corrective actions if the independent review identifies that the organization‟s approach and implementation to managing information security is inadequate or not compliant with the direction for information security stated in the information security policy document?</t>
+  </si>
+  <si>
+    <t>Identification of risks related to external parties</t>
+  </si>
+  <si>
+    <t>The security of the organization‟s information and information processing facilities should not be reduced by the introduction of external party products or services. Any access to the organization‟s information processing facilities and processing and communication of information by external parties should be controlled. Where there is a business need for working with external parties that may require access to the organization‟s information and information processing facilities, or in obtaining or providing a product and service from or to an external party, a risk assessment should be carried out to determine security implications and control requirements. Controls should be agreed and defined in an agreement with the external party.</t>
+  </si>
+  <si>
+    <t>Are the risks to the organization‟s information and information processing facilities from business processes involving external parties identified and appropriate controls implemented before granting access?</t>
+  </si>
+  <si>
+    <t>Where there is a need to allow an external party access to the information processing facilities or information of an organization, is a risk assessment carried out to identify any requirements for specific controls?</t>
+  </si>
+  <si>
+    <t>Do the identification of risks related to external party access take into account the following issues:
+a) the information processing facilities an external party is required to access;
+b) the type of access the external party will have to the information and information processing facilities, e.g.:
+     1) physical access, e.g. to offices, computer rooms,   filing cabinets;
+     2) logical access, e.g. to an organization‟s databases, information systems;
+     3) network connectivity between the organization‟s and the external party‟s network(s), e.g. permanent connection, remote access;
+     4) whether the access is taking place on-site or off-site;
+c) the value and sensitivity of the information involved, and its criticality for business operations;
+d) the controls necessary to protect information that is not intended to be accessible by external parties;
+e) the external party personnel involved in handling the organization‟s information;
+f) how the organization or personnel authorized to have access can be identified, the authorization verified, and how often this needs to be reconfirmed;
+g) the different means and controls employed by the external party when storing, processing, communicating, sharing and exchanging information;
+h) the impact of access not being available to the external party when required, and the external party entering or receiving inaccurate or misleading information;
+i) practices and procedures to deal with information security incidents and potential damages, and the terms and conditions for the continuation of external party access in the case of an information security incident;
+j) legal and regulatory requirements and other contractual obligations relevant to the external party that should be taken into account;
+k) how the interests of any other stakeholders may be affected by the arrangements?</t>
+  </si>
+  <si>
+    <t>Is access by external parties to the organization‟s information withheld until the appropriate controls have been implemented and, where feasible, a contract has been signed defining the terms and conditions for the connection or access and the working arrangement?</t>
+  </si>
+  <si>
+    <t>Are all security requirements resulting from work with external parties or internal controls reflected by the agreement with the external party?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that the external party is aware of their obligations, and accepts the responsibilities and liabilities involved in accessing, processing, communicating, or managing the organization‟s information and information processing facilities?</t>
+  </si>
+  <si>
+    <t>Are controls identified and applied to administer external party access to information processing facilities, where information might be put at risk by external parties with inadequate security management?</t>
+  </si>
+  <si>
+    <t>Addressing security while dealing with customers</t>
+  </si>
+  <si>
+    <t>Are all identified security requirements addressed before giving customers access to the organization‟s information or assets?</t>
+  </si>
+  <si>
+    <t>Are the following terms considered to address security prior to giving customers access to any of the organization‟s assets (depending on the type and extent of access given, not all of them might apply):
+a) asset protection, including:
+1) procedures to protect the organization‟s assets, including information and software, and management of known vulnerabilities;
+2) procedures to determine whether any compromise of the assets, e.g. loss or modification of data, has occurred;
+3) integrity;
+4) restrictions on copying and disclosing information;
+b) description of the product or service to be provided;
+c) the different reasons, requirements, and benefits for customer access;
+d) access control policy, covering:
+1) permitted access methods, and the control and use of unique identifiers such as user IDs and passwords;
+2) an authorization process for user access and privileges;
+3) a statement that all access that is not explicitly authorized is forbidden;
+4) a process for revoking access rights or interrupting the connection between systems;
+e) arrangements for reporting, notification, and investigation of information inaccuracies (e.g. of personal details), information security incidents and security breaches;
+f) a description of each service to be made available;
+g) the target level of service and unacceptable levels of service;
+h) the right to monitor, and revoke, any activity related to the organization‟s assets;
+i) the respective liabilities of the organization and the customer;
+j) responsibilities with respect to legal matters and how it is ensured that the legal requirements are met, e.g. data protection legislation, especially taking into account different national legal systems if the agreement involves co-operation with customers in other countries;
+k) intellectual property rights (IPRs) and copyright assignment and protection of any collaborative work?</t>
+  </si>
+  <si>
+    <t>Do agreements granting external party access include allowance for designation of other eligible parties and conditions for their access and involvement?</t>
+  </si>
+  <si>
+    <t>Addressing security in third party agreements</t>
+  </si>
+  <si>
+    <t>Do agreements with third parties involving accessing, processing, communicating or managing the organization‟s information or information processing facilities, or adding products or services to information processing facilities cover all relevant security requirements?</t>
+  </si>
+  <si>
+    <t>Does the agreement ensure that there is no misunderstanding between the organization and the third party?</t>
+  </si>
+  <si>
+    <t>Does the organization satisfy themselves as to the indemnity of the third party?</t>
+  </si>
+  <si>
+    <t>Since agreements can vary considerably for different organizations and among the different types of third parties - is due care taken to include all identified risks and security requirements in the agreements?</t>
+  </si>
+  <si>
+    <t>If information security management is outsourced, do the agreements address how the third party will guarantee that adequate security, as defined by the risk assessment, will be maintained, and how security will be adapted to identify and deal with changes to risks?</t>
+  </si>
+  <si>
+    <t>Do agreements granting third party access include allowance for designation of other eligible parties and conditions for their access and involvement?</t>
+  </si>
+  <si>
+    <t>Are the following items considered for inclusion in the agreement in order to satisfy the identified security requirements:
+a) the information security policy;
+b) controls to ensure asset protection
+c) user and administrator training in methods, procedures, and security;
+d) ensuring user awareness for information security responsibilities and issues;
+e) provision for the transfer of personnel, where appropriate;
+f) responsibilities regarding hardware and software installation and maintenance;
+g) a clear reporting structure and agreed reporting formats;
+h) a clear and specified process of change management;
+i) access control policy
+j) arrangements for reporting, notification, and investigation of information security incidents and security breaches, as well as violations of the requirements stated in the agreement;
+k) a description of the product or service to be provided, and a description of the information to be made available along with its security classification;
+l) the target level of service and unacceptable levels of service;
+m) the definition of verifiable performance criteria, their monitoring and reporting;
+n) the right to monitor, and revoke, any activity related to the organization‟s assets;
+o) the right to audit responsibilities defined in the agreement, to have those audits carried out by a third party
+p) the establishment of an escalation process for problem resolution;
+q) service continuity requirements, including measures for availability and reliability, in accordance with an organization‟s business priorities;
+r) the respective liabilities of the parties to the agreement;
+s) responsibilities with respect to legal matters and how it is ensured that the legal requirements are met, e.g. data protection legislation, especially taking into account different national legal systems if the agreement involves co-operation with organizations in other countries;
+t) intellectual property rights (IPRs) and copyright assignment and protection of any collaborative work;
+u) involvement of the third party with subcontractors, and the security controls these subcontractors need to implement;
+v) conditions for renegotiation/termination of agreements</t>
   </si>
   <si>
     <t>Asset Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether all assets are identified and an inventory or register is maintained with all the important assets. </t>
-  </si>
-  <si>
-    <t>Whether each asset identified has an owner, a defined and agreed-upon security classification, and access restrictions that are periodically reviewed.</t>
-  </si>
-  <si>
-    <t>Whether regulations for acceptable use of information and assets associated with the business were identified, documented and implemented.   AUP for users?</t>
-  </si>
-  <si>
-    <t>Whether the information is classified in terms of its value, legal requirements, sensitivity and criticality to the organization.</t>
-  </si>
-  <si>
-    <t>Whether an appropriate set of procedures are defined for information labelling and handling, in accordance with the classification scheme adopted by the organization.</t>
+    <t>Inventory of Assets</t>
+  </si>
+  <si>
+    <t>All assets should be accounted for and have a nominated owner. Owners should be identified for all assets and the responsibility for the maintenance of appropriate controls should be assigned. The implementation of specific controls may be delegated by the owner as appropriate but the owner remains responsible for the proper protection of the assets.</t>
+  </si>
+  <si>
+    <t>Are all assets clearly identified and an inventory of all primary and secondary assets drawn up and maintained?</t>
+  </si>
+  <si>
+    <t>Has the organization identified all assets and documented the importance of these assets?</t>
+  </si>
+  <si>
+    <t>Does the asset inventory include all information necessary in order to recover from a disaster, including type of asset, format, location, backup information, license information, and a business value?</t>
+  </si>
+  <si>
+    <t>Does the inventory ensure that the content is aligned with the business function?</t>
+  </si>
+  <si>
+    <t>Is ownership and information classification agreed and documented for each of the assets?</t>
+  </si>
+  <si>
+    <t>Based on the importance of the asset, its business value and its security classification, are levels of protection commensurate with the importance of the assets identified?</t>
+  </si>
+  <si>
+    <t>Ownership of Assets</t>
+  </si>
+  <si>
+    <t>Are all information and assets associated with information processing facilities owned by a designated part of the organization?</t>
+  </si>
+  <si>
+    <t>Is the asset owner responsible for:
+a) ensuring that information and assets associated with information processing facilities are appropriately classified;
+b) defining and periodically reviewing access restrictions and classifications, taking into account applicable access control policies?</t>
+  </si>
+  <si>
+    <t>Acceptable use of assets</t>
+  </si>
+  <si>
+    <t>Are rules for the acceptable use of information and assets associated with information processing facilities identified, documented, and implemented?</t>
+  </si>
+  <si>
+    <t>Are all employees, contractors and third party users required to follow rules for the acceptable use of information and assets associated with information processing facilities, including:
+a) rules for electronic mail and internet usages;
+b) guidelines for the use of mobile devices, especially for the use outside the premises of the organization?</t>
+  </si>
+  <si>
+    <t>Classification guidelines</t>
+  </si>
+  <si>
+    <t>Information should be classified to indicate the need, priorities, and expected degree of protection when handling the information. Information has varying degrees of sensitivity and criticality. Some items may require an additional level of protection or special handling. An information classification scheme should be used to define an appropriate set of protection levels and communicate the need for special handling measures.</t>
+  </si>
+  <si>
+    <t>Is information and assets classified in terms of its value, legal requirements, sensitivity, and criticality to the organization?</t>
+  </si>
+  <si>
+    <t>Do classifications and associated protective controls for information take account of business needs for sharing or restricting information and the business impacts associated with such needs?</t>
+  </si>
+  <si>
+    <t>Do classification guidelines include conventions for initial classification and reclassification over time; in accordance with some predetermined access control policy?</t>
+  </si>
+  <si>
+    <t>Is it the responsibility of the asset owner to define the classification of an asset, periodically review it, and ensure it is kept up to date and at the appropriate level?</t>
+  </si>
+  <si>
+    <t>Does the classification take account of the aggregation effect mentioned in ISO/IEC 27002:2005 (E) §10.7.2?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the number of classification categories and the benefits to be gained from their use?</t>
+  </si>
+  <si>
+    <t>Is care taken in interpreting classification labels on documents from other organizations, which may have different definitions for the same or similarly named labels?</t>
+  </si>
+  <si>
+    <t>Information often ceases to be sensitive or critical after a certain period of time, for example, when the information has been made public. Are these aspects taken into account, as over-classification can lead to the implementation of unnecessary controls resulting in additional expense?</t>
+  </si>
+  <si>
+    <t>Information labelling and handling</t>
+  </si>
+  <si>
+    <t>Has an appropriate set of procedures for information labeling and handling been developed and implemented in accordance with the classification scheme adopted by the organization?</t>
+  </si>
+  <si>
+    <t>Does output from systems containing information that is classified as being sensitive or critical carry an appropriate classification label (in the output)?</t>
+  </si>
+  <si>
+    <t>Does the labeling reflect the classification according to the rules established above? (Items for consideration include printed reports, screen displays, recorded media e.g. tapes, disks, CDs, electronic messages, and file transfers)?</t>
+  </si>
+  <si>
+    <t>For each classification level, are the handling procedures including the secure processing, storage, transmission, declassification, and destruction defined?</t>
+  </si>
+  <si>
+    <t>For each classification level, do the handling procedures include the procedures for chain of custody and logging of any security relevant event?</t>
+  </si>
+  <si>
+    <t>Do agreements with other organizations that include information sharing include procedures to identify the classification of that information and to interpret the classification labels from other organizations?</t>
   </si>
   <si>
     <t>Human Resources Security</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether employee security roles and responsibilities, ‎contractors and third party users were defined and ‎documented in accordance with the organization’s ‎information security policy. </t>
-  </si>
-  <si>
-    <t>Were the roles and responsibilities defined and clearly ‎communicated to job candidates during the pre-‎employment process</t>
-  </si>
-  <si>
-    <t>Whether background verification checks for all ‎candidates for employment, contractors, and third party ‎users were carried out in accordance to the relevant ‎regulations.</t>
-  </si>
-  <si>
-    <t>Does the check include character reference, ‎confirmation of claimed academic and professional ‎qualifications and independent identity checks</t>
-  </si>
-  <si>
-    <t>Whether employee, contractors and third party users ‎are asked to sign confidentiality or non-disclosure ‎agreement as a part of their initial terms and conditions ‎of the employment contract.‎</t>
-  </si>
-  <si>
-    <t>Whether this agreement covers the information ‎security responsibility of the organization and the ‎employee, third party users and contractors. ‎</t>
-  </si>
-  <si>
-    <t>Whether the management requires employees, contractors and third party users to apply security in accordance with the established policies and procedures of the organization.</t>
-  </si>
-  <si>
-    <t>Whether all employees in the organization, and where relevant, contractors and third party users, receive appropriate security awareness training and regular updates in organizational policies and procedures as it pertains to their job function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether management evaluates the effectiveness of the security policy and security awareness training through the use of simulated tests (social engineering, phishing emails, malicious SMS/text messages, infected/unauthorized portable storage devices, etc…) </t>
-  </si>
-  <si>
-    <t>Whether there is a formal disciplinary process for the ‎employees who have committed a security breach.‎</t>
-  </si>
-  <si>
-    <t>Whether responsibilities for performing employment termination, or change of employment, are clearly defined and assigned.</t>
-  </si>
-  <si>
-    <t>Whether there is a process in place that ensures all employees, contractors and third party users surrender all of the organization’s assets in their possession upon termination of their employment, contract or agreement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether access rights of all employees, contractors and third party users, to information and information processing facilities, will be removed upon termination of their employment, contract or agreement, or will be adjusted upon change. </t>
+    <t>Roles and responsibilities</t>
+  </si>
+  <si>
+    <t>Security responsibilities should be addressed prior to employment in adequate job descriptions and in terms and conditions of employment. All candidates for employment, contractors and third party users should be adequately screened, especially for sensitive jobs. Employees, contractors and third party users of information processing facilities should sign an agreement on their security roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>Are security roles and responsibilities of employees, contractors and third party users defined and documented in accordance with the organization‟s information security policy?</t>
+  </si>
+  <si>
+    <t>Do security roles and responsibilities include the requirement to:
+a) implement and act in accordance with the organization‟s information security policies;
+b) protect assets from unauthorized access, disclosure, modification, destruction or interference;
+c) execute particular security processes or activities;
+d) ensure responsibility is assigned to the individual for actions taken;
+e) report security events or potential events or other security risks to the organization?</t>
+  </si>
+  <si>
+    <t>Are security roles and responsibilities defined and clearly communicated to job candidates during the pre-employment process?</t>
+  </si>
+  <si>
+    <t>Are security roles and responsibilities for individuals not engaged via the organization‟s employment process, (e.g. engaged via a third party organization), also clearly defined and communicated?</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>Are background verification checks on all candidates for employment, contractors, and third party users carried out in accordance with relevant laws, regulations and ethics, and proportional to the business requirements, the classification of the information to be accessed, and the perceived risks?</t>
+  </si>
+  <si>
+    <t>Do verification checks take into account all relevant privacy, protection of personal data and/or employment based legislation, and where permitted, include the following:
+a) availability of satisfactory character references, e.g. one business and one personal;
+b) a check (for completeness and accuracy) of the applicant‟s curriculum vitae;
+c) confirmation of claimed academic and professional qualifications;
+d) independent identity check (passport or similar document);
+e) more detailed checks, such as credit checks or checks of criminal records?</t>
+  </si>
+  <si>
+    <t>Does the organization also consider further, more detailed checks, where a job, either on initial appointment or on promotion, involves the person having access to information processing facilities, and in particular if these are handling sensitive information, e.g. financial information or highly confidential information?</t>
+  </si>
+  <si>
+    <t>Does the organization‟s procedures define criteria and limitations for verification checks, e.g. who is eligible to screen people, and how, when and why verification checks are carried out?</t>
+  </si>
+  <si>
+    <t>Is a screening process also carried out for contractors, and third party users?</t>
+  </si>
+  <si>
+    <t>Where contractors are provided through an agency does the contract with the agency clearly specify the agency‟s responsibilities for screening and the notification procedures they need to follow if screening has not been completed or if the results give cause for doubt or concern?</t>
+  </si>
+  <si>
+    <t>Does the agreement with the third party clearly specify all responsibilities and notification procedures for screening?</t>
+  </si>
+  <si>
+    <t>Is the information on all candidates being considered for positions within the organization collected and handled in accordance with any appropriate legislation existing in the relevant jurisdiction?</t>
+  </si>
+  <si>
+    <t>Depending on applicable legislation, are the candidates informed beforehand about the screening activities?</t>
+  </si>
+  <si>
+    <t>Terms and conditions of employment</t>
+  </si>
+  <si>
+    <t>As part of their contractual obligation, do employees, contractors and third party users agree and sign the terms and conditions of their employment contract, which states their and the organization‟s responsibilities for information security?</t>
+  </si>
+  <si>
+    <t>Do the terms and conditions of employment reflect the organization‟s security policy in addition to clarifying and stating:
+a) that all employees, contractors and third party users who are given access to sensitive information are required to sign a confidentiality or non-disclosure agreement prior to being given access to information processing facilities;
+b) the employee‟s, contractor‟s and any other user‟s legal responsibilities and rights, e.g. regarding copyright laws or data protection legislation;
+c) responsibilities for the classification of information and management of organizational assets associated with information systems and services handled by the employee, contractor or third party user;
+d) responsibilities of the employee, contractor or third party user for the handling of information received from other companies or external parties;
+e) responsibilities of the organization for the handling of personal information, including personal information created as a result of, or in the course of, employment with the organization;
+f) responsibilities that are extended outside the organization‟s premises and outside normal working hours, e.g. in the case of home-working;
+g) actions to be taken if the employee, contractor or third party user disregards the organization‟s security requirements?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that employees, contractors and third party users agree to terms and conditions concerning information security appropriate to the nature and extent of access they will have to the organization‟s assets associated with information systems and services?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that where appropriate, responsibilities contained within the terms and conditions of employment continue for a defined period after the end of the employment?</t>
+  </si>
+  <si>
+    <t>Management Responsibilities</t>
+  </si>
+  <si>
+    <t>Management responsibilities should be defined to ensure that security is applied throughout an individual‟s employment within the organization. An adequate level of awareness, education, and training in security procedures and the correct use of information processing facilities should be provided to all employees, contractors and third party users to minimize possible security risks. A formal disciplinary process for handling security breaches should be established.</t>
+  </si>
+  <si>
+    <t>Does management require employees, contractors and third party users to apply security in accordance with established policies and procedures of the organization?</t>
+  </si>
+  <si>
+    <t>Does management‟s responsibilities include ensuring that employees, contractors and third party users:
+a) are properly briefed on their information security roles and responsibilities prior to being granted access to sensitive information or information systems;
+b) are provided with guidelines to state security expectations of their role within the organization;
+c) are motivated to fulfill the security policies of the organization;
+d) achieve a level of awareness on security relevant to their roles and responsibilities within the organization;
+e) conform to the terms and conditions of employment, which includes the organization‟s information security policy and appropriate methods of working;
+f) continue to have the appropriate skills and qualifications?</t>
+  </si>
+  <si>
+    <t>Information security awareness, education and training</t>
+  </si>
+  <si>
+    <t>Do all employees of the organization and, where relevant, contractors and third party users receive appropriate awareness training and regular updates in organizational policies and procedures, as relevant for their job function?</t>
+  </si>
+  <si>
+    <t>Does awareness training commence with a formal induction process designed to introduce the organization‟s security policies and expectations before access to information or services is granted?</t>
+  </si>
+  <si>
+    <t>Does ongoing training include security requirements, legal responsibilities and business controls, as well as training in the correct use of information processing facilities e.g. log-on procedure, use of software packages and information on the disciplinary process?</t>
+  </si>
+  <si>
+    <t>Are the security awareness, education, and training activities suitable and relevant to the person‟s role, responsibilities and skills?</t>
+  </si>
+  <si>
+    <t>Do the security awareness, education, and training activities include information on known threats, who to contact for further security advice and the proper channels for reporting information security incidents?</t>
+  </si>
+  <si>
+    <t>Employee Security Risk Assesment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does management evaluate the effectiveness of the security policy and security awareness training through the use of simulated tests (social engineering, phishing emails, malicious SMS/text messages, infected/unauthorized portable storage devices, etc…)? </t>
+  </si>
+  <si>
+    <t>Disciplinary process</t>
+  </si>
+  <si>
+    <t>Is there a formal disciplinary process for employees who have committed a security breach?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that the disciplinary process does not commence without prior verification that a security breach has occurred?</t>
+  </si>
+  <si>
+    <t>Does the formal disciplinary process ensure correct and fair treatment for employees who are suspected of committing breaches of security?</t>
+  </si>
+  <si>
+    <t>Does the formal disciplinary process provide for a graduated response that takes into consideration factors such as the nature and gravity of the breach and its impact on business, whether or not this is a first or repeat offence, whether or not the violator was properly trained, relevant legislation, business contracts and other factors as required?</t>
+  </si>
+  <si>
+    <t>In serious cases of misconduct does the process allow for instant removal of duties, access rights and privileges, and for immediate escorting out of the site, if necessary?</t>
+  </si>
+  <si>
+    <t>Is the disciplinary process also used as a deterrent to prevent employees, contractors and third party users from violating organizational security policies and procedures, and any other security breaches?</t>
+  </si>
+  <si>
+    <t>Termination responsibilities</t>
+  </si>
+  <si>
+    <t>Responsibilities should be in place to ensure an employee‟s, contractor‟s or third party user‟s exit from the organization is managed, and that the return of all equipment and the removal of all access rights are completed.</t>
+  </si>
+  <si>
+    <t>Are responsibilities for performing employment termination or change of employment clearly defined and assigned?</t>
+  </si>
+  <si>
+    <t>Does the communication of termination responsibilities include ongoing security requirements and legal responsibilities and, where appropriate, responsibilities contained within any confidentiality agreement, and the terms and conditions of employment continuing for a defined period after the end of the employee‟s, contractor‟s or third party user‟s employment?</t>
+  </si>
+  <si>
+    <t>Are responsibilities and duties still valid after termination of employment contained in employee‟s, contractor‟s or third party user‟s contracts?</t>
+  </si>
+  <si>
+    <t>Are changes of responsibility or employment managed as the termination of the respective responsibility or employment, and the new responsibility or employment controlled as described in step 8.1 above?</t>
+  </si>
+  <si>
+    <t>Return of assets</t>
+  </si>
+  <si>
+    <t>Do all employees, contractors and third party users return all of the organization‟s assets in their possession upon termination of their employment, contract or agreement?</t>
+  </si>
+  <si>
+    <t>Is the termination process formalized to include the return of all previously issued software, corporate documents, and equipment, including other organizational assets such as mobile computing devices, credit cards, access cards, software, manuals, and information stored on electronic media?</t>
+  </si>
+  <si>
+    <t>Are procedures followed to ensure that all relevant information is transferred to the organization and securely erased from the equipment in cases where an employee, contractor or third party user purchases the organization‟s equipment or uses their own personal equipment?</t>
+  </si>
+  <si>
+    <t>In cases where an employee, contractor or third party user has knowledge that is important to ongoing operations, is that information documented and transferred to the organization?</t>
+  </si>
+  <si>
+    <t>Removal of access rights</t>
+  </si>
+  <si>
+    <t>Are the access rights of all employees, contractors and third party users to information and information processing facilities removed upon termination of their employment, contract or agreement, or adjusted upon change?</t>
+  </si>
+  <si>
+    <t>Upon termination, are the access rights of an individual to assets associated with information systems and services reconsidered?</t>
+  </si>
+  <si>
+    <t>Do changes of an employment reflect in removal of all access rights that were not approved for the new employment?</t>
+  </si>
+  <si>
+    <t>Do the access rights to be removed or adapted include physical and logical access, keys, identification cards, information processing facilities, subscriptions, and removal from any documentation that identifies them as a current member of the organization?</t>
+  </si>
+  <si>
+    <t>Are passwords for accounts remaining active which are known by a departing employee, contractor or third party user changed upon termination or change of employment, contract or agreement?</t>
+  </si>
+  <si>
+    <t>Are access rights for information assets and information processing facilities reduced or removed before the employment terminates or changes, depending on the evaluation of risk factors such as:
+a) whether the termination or change is initiated by the employee, contractor or third party user, or by management and the reason of termination;
+b) the current responsibilities of the employee, contractor or any other user;
+c) the value of the assets currently accessible?</t>
+  </si>
+  <si>
+    <t>In circumstances where access rights may be allocated on the basis of being available to more people than the departing employee, contractor or third party user, e.g. group IDs, is the departing individuals removed from any group access lists and are arrangements made to advise all other employees, contractors and third party users involved to no longer share this information with the person departing?</t>
   </si>
   <si>
     <t>Physical and Environmental Security</t>
   </si>
   <si>
-    <t>Whether a physical border security facility has been ‎implemented to protect the information processing ‎service. ‎Some examples of such security facilities are card ‎control entry gates, walls, manned reception, etc‎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether entry controls are in place to allow only authorized personnel into various areas within the organization. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether the rooms, which have the information processing service, are locked or have lockable cabinets or safes. </t>
-  </si>
-  <si>
-    <t>Whether the physical protection against damage from fire, flood, earthquake, explosion, civil unrest and other forms of natural or man-made disaster should be designed and applied.</t>
-  </si>
-  <si>
-    <t>Whether there is any potential threat from neighbouring premises.</t>
-  </si>
-  <si>
-    <t>Whether physical protection and guidelines for working in secure areas is designed and implemented</t>
-  </si>
-  <si>
-    <t>Whether the delivery, loading, and other areas where unauthorized persons may enter the premises are controlled, and information processing facilities are isolated, to avoid unauthorized access.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether the equipment is protected to reduce the risks from environmental threats and hazards, and opportunities for unauthorized access. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether the equipment is protected from power ‎failures and other disruptions caused by failures in ‎supporting utilities. </t>
-  </si>
-  <si>
-    <t>Whether permanence of power supplies, such as a  ‎multiple feed, an Uninterruptible Power Supply (ups), ‎a backup generator, etc. are being utilized‎</t>
-  </si>
-  <si>
-    <t>Whether the power and telecommunications cable, carrying data or supporting information services, is protected from interception or damage</t>
-  </si>
-  <si>
-    <t>Whether there are any additional security controls in place for sensitive or critical information</t>
-  </si>
-  <si>
-    <t>Whether the equipment is correctly maintained to ‎ensure its continued availability and integrity. ‎</t>
-  </si>
-  <si>
-    <t>Whether the equipment is maintained, as per the ‎supplier’s recommended service intervals and ‎specifications. ‎</t>
-  </si>
-  <si>
-    <t>Whether the maintenance is carried out only by ‎authorized personnel.‎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether logs are maintained with all suspected or actual faults and all preventive and corrective measures. </t>
-  </si>
-  <si>
-    <t>Whether appropriate controls are implemented while ‎sending equipment off premises. ‎
-Are the equipment covered by insurance and the ‎insurance requirements satisfied‎</t>
-  </si>
-  <si>
-    <t>Whether risks were assessed with regards to any ‎equipment usage outside an organization’s premises, ‎and mitigation controls implemented. ‎</t>
-  </si>
-  <si>
-    <t>Whether the usage of an information processing ‎facility outside the organization has been authorized by ‎the management. ‎</t>
-  </si>
-  <si>
-    <t>Whether all equipment, containing storage media, is checked to ensure that any sensitive information or licensed software is physically destroyed, or securely over-written, prior to disposal or reuse.</t>
-  </si>
-  <si>
-    <t>Whether any controls are in place so that equipment, information and software is not taken off-site without prior authorization.</t>
+    <t>Physical security perimeter</t>
+  </si>
+  <si>
+    <t>Critical or sensitive information processing facilities should be housed in secure areas, protected by defined security perimeters, with appropriate security barriers and entry controls. They should be physically protected from unauthorized access, damage, and interference. The protection provided should be commensurate with the identified risks.</t>
+  </si>
+  <si>
+    <t>Are security perimeters (barriers such as walls, card controlled entry gates or manned reception desks) used to protect areas that contain information and information processing facilities?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for physical security perimeters:
+a) security perimeters should be clearly defined, and the siting and strength of each of the perimeters should depend on the security requirements of the assets within the perimeter and the results of a risk assessment;
+b) perimeters of a building or site containing information processing facilities should be physically sound (i.e. there should be no gaps in the perimeter or areas where a break-in could easily occur); the external walls of the site should be of solid construction and all external doors should be suitably protected against unauthorized access with control mechanisms, e.g. bars, alarms, locks etc; doors and windows should be locked when unattended and external protection should be considered for windows, particularly at ground level;
+c) a manned reception area or other means to control physical access to the site or building should be in place; access to sites and buildings should be restricted to authorized personnel only;
+d) physical barriers should, where applicable, be built to prevent unauthorized physical access and environmental contamination;
+e) all fire doors on a security perimeter should be alarmed, monitored, and tested in conjunction with the walls to establish the required level of resistance in accordance to suitable regional, national, and international standards; they should operate in accordance with local fire code in a failsafe manner;
+f) suitable intruder detection systems should be installed to national, regional or international standards and regularly tested to cover all external doors and accessible windows; unoccupied areas should be alarmed at all times; cover should also be provided for other areas, e.g. computer room or communications rooms;
+g) information processing facilities managed by the organization should be physically separated from those managed by third parties?</t>
+  </si>
+  <si>
+    <t>Is special consideration towards physical access security given to buildings where multiple organizations are housed?</t>
+  </si>
+  <si>
+    <t>Physical entry controls</t>
+  </si>
+  <si>
+    <t>Are secure areas protected by appropriate entry controls to ensure that only authorized personnel are allowed access?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for physical entry controls:
+a) the date and time of entry and departure of visitors should be recorded, and all visitors should be supervised unless their access has been previously approved; they should only be granted access for specific, authorized purposes and should be issued with instructions on the security requirements of the area and on emergency procedures.
+b) access to areas where sensitive information is processed or stored should be controlled and restricted to authorized persons only; authentication controls, e.g. access control card plus PIN, should be used to authorize and validate all access; an audit trail of all access should be securely maintained;
+c) all employees, contractors and third party users and all visitors should be required to wear some form of visible identification and should immediately notify security personnel if they encounter unescorted visitors and anyone not wearing visible identification;
+d) third party support service personnel should be granted restricted access to secure areas or sensitive information processing facilities only when required; this access should be authorized and monitored;
+e) access rights to secure areas should be regularly reviewed and updated, and revoked when necessary?</t>
+  </si>
+  <si>
+    <t>Securing offices, rooms and facilities</t>
+  </si>
+  <si>
+    <t>Is physical security for offices, rooms, and facilities designed and applied?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for securing offices, rooms, and facilities:
+a) account should be taken of relevant health and safety regulations and standards;
+b) key facilities should be sited to avoid access by the public;
+c) where applicable, buildings should be unobtrusive and give minimum indication of their purpose, with no obvious signs, outside or inside the building identifying the presence of information processing activities;
+d) directories and internal telephone books identifying locations of sensitive information processing facilities should not be readily accessible by the public.</t>
+  </si>
+  <si>
+    <t>Protecting against external and environmental threats</t>
+  </si>
+  <si>
+    <t>Is physical protection against damage from fire, flood, earthquake, explosion, civil unrest, and other forms of natural or man-made disaster designed and applied?</t>
+  </si>
+  <si>
+    <t>Is consideration given to any security threats presented by neighboring premises, e.g. a fire in a neighboring building, water leaking from the roof or in floors below ground level or an explosion in the street?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate to avoid damage from fire, flood, earthquake, explosion, civil unrest, and other forms of natural or man-made disaster:
+a) hazardous or combustible materials should be stored at a safe distance from a secure area. Bulk supplies such as stationery should not be stored within a secure area;
+b) fallback equipment and back-up media should be sited at a safe distance to avoid damage from a disaster affecting the main site;
+c) appropriate firefighting equipment should be provided and suitably placed?</t>
+  </si>
+  <si>
+    <t>Working in secure areas</t>
+  </si>
+  <si>
+    <t>Is physical protection and guidelines for working in secure areas designed and applied?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate:
+a) personnel should only be aware of the existence of, or activities within, a secure area on a need to know basis;
+b) unsupervised working in secure areas should be avoided both for safety reasons and to prevent opportunities for malicious activities;
+c) vacant secure areas should be physically locked and periodically checked;
+d) photographic, video, audio or other recording equipment, such as cameras in mobile devices, should not be allowed, unless authorized?</t>
+  </si>
+  <si>
+    <t>Public access delivery and loading areas</t>
+  </si>
+  <si>
+    <t>Are access points such as delivery and loading areas and other points where unauthorized persons may enter the premises controlled and, if possible, isolated from information processing facilities to avoid unauthorized access?</t>
+  </si>
+  <si>
+    <t>Equipment siting and protection</t>
+  </si>
+  <si>
+    <t>Equipment should be protected from physical and environmental threats. Protection of equipment (including that used off-site, and the removal of property) is necessary to reduce the risk of unauthorized access to information and to protect against loss or damage. This should also consider equipment siting and disposal. Special controls may be required to protect against physical threats, and to safeguard supporting facilities, such as the electrical supply and cabling infrastructure.</t>
+  </si>
+  <si>
+    <t>Is sensitive and/or mission critical equipment sited or protected to reduce the risks from environmental threats and hazards, and opportunities for unauthorized access?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for protect equipment:
+a) equipment should be sited to minimize unnecessary access into work areas;
+b) information processing facilities handling sensitive data should be positioned and the viewing angle restricted to reduce the risk of information being viewed by unauthorized persons during their use, and storage facilities secured to avoid unauthorized access;
+c) items requiring special protection should be isolated to reduce the general level of protection required;
+d) controls should be adopted to minimize the risk of potential physical threats, e.g. theft, fire, explosives, smoke, water (or water supply failure), dust, vibration, chemical effects, electrical supply interference, communications interference, electromagnetic radiation,
+and vandalism;
+e) guidelines for eating, drinking, and smoking in proximity to information processing facilities should be established;
+f) environmental conditions, such as temperature and humidity, should be monitored for conditions, which could adversely affect the operation of information processing facilities;
+g) lightning protection should be applied to all buildings and lightning protection filters should be fitted to all incoming power and communications lines;
+h) the use of special protection methods, such as keyboard membranes, should be considered for equipment in industrial environments;
+i) equipment processing sensitive information should be protected to minimize the risk of information leakage due to emanation?</t>
+  </si>
+  <si>
+    <t>Supporting utilities</t>
+  </si>
+  <si>
+    <t>Is equipment protected from power failures and other disruptions caused by failures in supporting utilities?</t>
+  </si>
+  <si>
+    <t>Is all supporting utilities, such as electricity, water supply, sewage, heating/ventilation, and air conditioning adequate for the systems they are supporting?</t>
+  </si>
+  <si>
+    <t>Are support utilities regularly inspected and as appropriate tested to ensure their proper functioning and to reduce any risk from their malfunction or failure?</t>
+  </si>
+  <si>
+    <t>Is a suitable electrical supply provided that conforms to the equipment manufacturer‟s specifications?</t>
+  </si>
+  <si>
+    <t>Do power contingency plans cover the action to be taken on failure of the UPS?</t>
+  </si>
+  <si>
+    <t>Was a back-up generator considered if processing is required to continue in case of a prolonged power failure?</t>
+  </si>
+  <si>
+    <t>Is an adequate supply of fuel available to ensure that the generator can perform for a prolonged period?</t>
+  </si>
+  <si>
+    <t>Are UPS equipment and generators regularly checked to ensure it has adequate capacity and is tested in accordance with the manufacturer‟s recommendations?</t>
+  </si>
+  <si>
+    <t>Are emergency power off switches located near emergency exits in equipment rooms to facilitate rapid power down in case of an emergency?</t>
+  </si>
+  <si>
+    <t>Is emergency lighting provided in case of main power failure?</t>
+  </si>
+  <si>
+    <t>Is the water supply stable and adequate to supply air conditioning, humidification equipment and fire suppression systems?</t>
+  </si>
+  <si>
+    <t>Is an alarm system to detect malfunctions in the supporting utilities evaluated and installed if required?</t>
+  </si>
+  <si>
+    <t>Is telecommunications equipment connected to the utility provider by at least two diverse routes to prevent failure in one connection path removing voice services?</t>
+  </si>
+  <si>
+    <t>Are voice services adequate to meet local legal requirements for emergency communications?</t>
+  </si>
+  <si>
+    <t>Cabling security</t>
+  </si>
+  <si>
+    <t>Is power and telecommunications cabling carrying data or supporting information services protected from interception or damage?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for cabling security:
+a) power and telecommunications lines into information processing facilities should be underground, where possible, or subject to adequate alternative protection;
+b) network cabling should be protected from unauthorized interception or damage, for example by using a conduit or by avoiding routes through public areas;
+c) power cables should be segregated from communications cables to prevent interference;
+d) clearly identifiable cable and equipment markings should be used to minimize handling errors, such as accidental patching of wrong network cables;
+e) a documented patch list should be used to reduce the possibility of errors;
+f) for sensitive or critical systems further controls to consider include:
+1) installation of armored conduit and locked rooms or boxes at inspection and termination points;
+2) use of alternative routings and/or transmission media providing appropriate security;
+3) use of fiber optic cabling;
+4) use of electromagnetic shielding to protect the cables;
+5) initiation of technical sweeps and physical inspections for unauthorized devices being attached to the cables;
+6) controlled access to patch panels and cable rooms?</t>
+  </si>
+  <si>
+    <t>Equipment Maintenance</t>
+  </si>
+  <si>
+    <t>Is equipment correctly maintained to ensure its continued availability and integrity?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for equipment maintenance:
+a) equipment should be maintained in accordance with the supplier‟s recommended service intervals and specifications;
+b) only authorized maintenance personnel should carry out repairs and service equipment;
+c) records should be kept of all suspected or actual faults, and all preventive and corrective maintenance;
+d) appropriate controls should be implemented when equipment is scheduled for maintenance, taking into account whether this maintenance is performed by personnel on site or external to the organization; where necessary, sensitive information should be cleared from the equipment, or the maintenance personnel should be sufficiently cleared;
+e) all requirements imposed by insurance policies should be complied with?</t>
+  </si>
+  <si>
+    <t>Securing of equipment off-premises</t>
+  </si>
+  <si>
+    <t>Is security applied to off-site equipment taking into account the different risks of working outside the organization‟s premises?</t>
+  </si>
+  <si>
+    <t>Regardless of ownership, is the use of any information processing equipment outside the organization‟s premises authorized by management?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for the protection of off-site equipment:
+a) equipment and media taken off the premises should not be left unattended in public places; portable computers should be carried as hand luggage and disguised where possible when travelling;
+b) manufacturers‟ instructions for protecting equipment should be observed at all times, e.g. protection against exposure to strong electromagnetic fields;
+c) home-working controls should be determined by a risk assessment and suitable controls applied as appropriate, e.g. lockable filing cabinets, clear desk policy, access controls for computers and secure communication with the office;
+d) adequate insurance coverage should be in place to protect equipment off-site?</t>
+  </si>
+  <si>
+    <t>Are security risks, e.g. of damage, theft or eavesdropping, which may vary considerably between locations, taken into account in determining the most appropriate controls?</t>
+  </si>
+  <si>
+    <t>Secure disposal or re-use of equipment</t>
+  </si>
+  <si>
+    <t>Are all items of equipment containing storage media checked to ensure that any sensitive data and licensed software has been removed or securely overwritten prior to disposal?</t>
+  </si>
+  <si>
+    <t>Are devices containing sensitive information physically destroyed or the information destroyed, deleted or overwritten using techniques to make the original information non-retrievable rather than using the standard delete or format function?</t>
+  </si>
+  <si>
+    <t>Are damaged devices containing sensitive data subjected to a risk assessment to determine whether the items are physically destroyed rather than sent for repair or discarded?</t>
+  </si>
+  <si>
+    <t>Removal of property</t>
+  </si>
+  <si>
+    <t>Is equipment, information or software restricted from being taken off-site without prior authorization?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following guidelines and implemented where appropriate for the removal of property:
+a) equipment, information or software should not be taken off-site without prior authorization;
+b) employees, contractors and third party users who have authority to permit off-site removal of assets should be clearly identified;
+c) time limits for equipment removal should be set and returns checked for compliance;
+d) where necessary and appropriate, equipment should be recorded as being removed off-site and recorded when returned?</t>
+  </si>
+  <si>
+    <t>Are spot checks, undertaken to detect unauthorized removal of property, to detect unauthorized recording devices, weapons, etc., and prevent their entry into the site carried out in accordance with relevant legislation and regulations?</t>
+  </si>
+  <si>
+    <t>Are individuals made aware if spot checks are carried out?</t>
+  </si>
+  <si>
+    <t>Are the spot checks only performed with authorization appropriate for the legal and regulatory requirements?</t>
   </si>
   <si>
     <t>Communication and Operations Management</t>
   </si>
   <si>
-    <t>Whether the operating procedure is documented, maintained and available to all users who need it.</t>
-  </si>
-  <si>
-    <t>Whether such procedures are treated as formal documents, and therefore any changes made need management authorization.</t>
-  </si>
-  <si>
-    <t>Whether all changes to information processing facilities and systems are controlled.</t>
-  </si>
-  <si>
-    <t>Whether duties and areas of responsibility are separated, in order to reduce opportunities for unauthorized modification or misuse of information, or services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether the development and testing facilities are isolated from operational facilities.  For example, development and production software should be run on different computers.  Where necessary, development and production networks should be kept separate from each other. </t>
-  </si>
-  <si>
-    <t>Whether back-ups of information and software is taken ‎and tested regularly in accordance with the agreed ‎backup policy.‎</t>
-  </si>
-  <si>
-    <t>Ensure that backups are properly protected via physical security or encryption when they are stored, as well as when they are moved across the network. This includes remote backups and cloud services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether all essential information and software can be recovered following a disaster or media failure. </t>
+    <t>Documented Operating procedures</t>
+  </si>
+  <si>
+    <t>Responsibilities and procedures for the management and operation of all information processing facilities should be established. This includes the development of appropriate operating procedures. Segregation of duties should be implemented, where appropriate, to reduce the risk of negligent or deliberate system misuse.</t>
+  </si>
+  <si>
+    <t>Are operating procedures documented, maintained, and made available to all users who need them?</t>
+  </si>
+  <si>
+    <t>Are documented procedures prepared for system activities associated with information processing and communication facilities, such as computer start-up and close-down procedures, backup, equipment maintenance, media handling, computer room and mail handling management, and safety?</t>
+  </si>
+  <si>
+    <t>Do the operating procedures specify the instructions for the detailed execution of each job including:
+a) processing and handling of information;
+b) backup;
+c) scheduling requirements, including interdependencies with other systems, earliest job start and latest job completion times;
+d) instructions for handling errors or other exceptional conditions, which might arise during job execution, including restrictions on the use of system utilities;
+e) support contacts in the event of unexpected operational or technical difficulties;
+f) special output and media handling instructions, such as the use of special stationery or the management of confidential output including procedures for secure disposal of output from failed jobs;
+g) system restart and recovery procedures for use in the event of system failure;
+h) the management of audit-trail and system log information?</t>
+  </si>
+  <si>
+    <t>Are operating procedures, and the documented procedures for system activities, treated as formal documents and changes authorized by management?</t>
+  </si>
+  <si>
+    <t>Are information systems managed consistently, using the same procedures, tools, and utilities?</t>
+  </si>
+  <si>
+    <t>Change Management</t>
+  </si>
+  <si>
+    <t>Are changes to information processing facilities and systems controlled?</t>
+  </si>
+  <si>
+    <t>Are operational systems and application software subject to strict change management control?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate for change management:
+a) identification and recording of significant changes;
+b) planning and testing of changes;
+c) assessment of the potential impacts, including security impacts, of such changes;
+d) formal approval procedure for proposed changes;
+e) communication of change details to all relevant persons;
+f) fallback procedures, including procedures and responsibilities for aborting and recovering from unsuccessful changes and unforeseen events?</t>
+  </si>
+  <si>
+    <t>Are formal management responsibilities and procedures in place to ensure satisfactory control of all changes to equipment, software or procedures?</t>
+  </si>
+  <si>
+    <t>When changes are made, is an audit/change log containing all relevant information retained?</t>
+  </si>
+  <si>
+    <t>Are changes to operational systems only made when there is a valid business reason to do so, such as an increase in the risk to the system?</t>
+  </si>
+  <si>
+    <t>Segregation of duties</t>
+  </si>
+  <si>
+    <t>Are duties and areas of responsibility segregated to reduce opportunities for unauthorized or unintentional modification or misuse of the organization‟s assets?</t>
+  </si>
+  <si>
+    <t>Is due care taken so that no single person can access, modify or use assets without authorization or detection?</t>
+  </si>
+  <si>
+    <t>Is the principle of segregation of duties applied as far as is possible and practicable?</t>
+  </si>
+  <si>
+    <t>Whenever it is difficult to segregate, are other controls such as monitoring of activities, audit trails and management supervision considered?</t>
+  </si>
+  <si>
+    <t>Seperation of development, test and operational facilities</t>
+  </si>
+  <si>
+    <t>Are development, test, and operational facilities separated to reduce the risks of unauthorized access or changes to the operational system?</t>
+  </si>
+  <si>
+    <t>Is the level of separation between operational, test, and development environments that is necessary to prevent operational problems identified and appropriate controls implemented?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate for separation of development, test, and operational facilities:
+a) rules for the transfer of software from development to operational status should be defined and documented;
+b) development and operational software should run on different systems or computer processors and in different domains or directories;
+c) compilers, editors, and other development tools or system utilities should not be accessible from operational systems when not required;
+d) the test system environment should emulate the operational system environment as closely as possible;
+e) users should use different user profiles for operational and test systems, and menus should display appropriate identification messages to reduce the risk of error;
+f) sensitive data should not be copied into the test system environment?</t>
+  </si>
+  <si>
+    <t>Service Delivery</t>
+  </si>
+  <si>
+    <t>The organization should check the implementation of agreements, monitor compliance with the agreements and manage changes to ensure that the services delivered meet all requirements agreed with the third party.</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that the security controls, service definitions and delivery levels included in the third party service delivery agreement are implemented, operated, and maintained by the third party?</t>
+  </si>
+  <si>
+    <t>Does service delivery by a third party include the agreed security arrangements, service definitions, and aspects of service management?</t>
+  </si>
+  <si>
+    <t>If the organization has outsourcing arrangements, does the organization plan the necessary transitions (of information, information processing facilities, and anything else that needs to be moved)?</t>
+  </si>
+  <si>
+    <t>If the organization has outsourcing arrangements, does the organization ensure that security is maintained throughout the transition period?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that the third party maintains sufficient service capability together with workable plans designed to ensure that agreed service continuity levels are maintained following major service failures or disaster?</t>
+  </si>
+  <si>
+    <t>Monitoring and review of third party services</t>
+  </si>
+  <si>
+    <t>Are the services, reports and records provided by the third party regularly monitored and reviewed?</t>
+  </si>
+  <si>
+    <t>Are the third party services audited regularly?</t>
+  </si>
+  <si>
+    <t>Does the monitoring and review of third party services ensure that the information security terms and conditions of the agreements are being adhered to, and that information security incidents and problems are managed properly?</t>
+  </si>
+  <si>
+    <t>Does the monitoring and review of third party services involve a service management relationship and process between the organization and the third party to:
+a) monitor service performance levels to check adherence to the agreements;
+b) review service reports produced by the third party and arrange regular progress meetings as required by the agreements;
+c) provide information about information security incidents and review of this information by the third party and the organization as required by the agreements and any supporting guidelines and procedures;
+d) review third party audit trails and records of security events, operational problems, failures, tracing of faults and disruptions related to the service delivered;
+e) resolve and manage any identified problems?</t>
+  </si>
+  <si>
+    <t>Is the responsibility for managing the relationship with a third party assigned to a designated individual or service management team?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure that the third party assigns responsibilities for checking for compliance and enforcing the requirements of the agreements?</t>
+  </si>
+  <si>
+    <t>Are sufficient technical skills and resources made available to monitor that requirements of the agreement, in particular the information security requirements, are being met?</t>
+  </si>
+  <si>
+    <t>Are appropriate actions taken when deficiencies in the service delivery are observed?</t>
+  </si>
+  <si>
+    <t>Does the organization maintain sufficient overall control and visibility into all security aspects for sensitive or critical information or information processing facilities accessed, processed or managed by a third party?</t>
+  </si>
+  <si>
+    <t>Does the organization ensure they retain visibility into security activities such as change management, identification of vulnerabilities, and information security incident reporting/response through a clearly defined reporting process, format and structure?</t>
+  </si>
+  <si>
+    <t>Managing changes to third party services</t>
+  </si>
+  <si>
+    <t>Are changes to the provision of services, including maintaining and improving existing information security policies, procedures and controls, managed, taking account of the criticality of business systems and processes involved and re-assessment of risks?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate for managing changes to third party services:
+a) changes made by the organization to implement:
+1) enhancements to the current services offered;
+2) development of any new applications and systems;
+3) modifications or updates of the organization‟s policies and procedures;
+4) new controls to resolve information security incidents and to improve security;
+b) changes in third party services to implement:
+1) changes and enhancement to networks;
+2) use of new technologies;
+3) adoption of new products or newer versions/releases;
+4) new development tools and environments;
+5) changes to physical location of service facilities;
+6) change of vendors?</t>
+  </si>
+  <si>
+    <t>Capacity Management</t>
+  </si>
+  <si>
+    <t>Advance planning and preparation are required to ensure the availability of adequate capacity and resources to deliver the required system performance. 
+Projections of future capacity requirements should be made, to reduce the risk of system overload. 
+The operational requirements of new systems should be established, documented, and tested prior to their acceptance and use.</t>
+  </si>
+  <si>
+    <t>Is the use of resources monitored, tuned, and projections made of future capacity requirements to ensure the required system performance?</t>
+  </si>
+  <si>
+    <t>For each new and ongoing activity, are capacity requirements identified?</t>
+  </si>
+  <si>
+    <t>Is system tuning and monitoring applied to ensure and, where necessary, improve the availability and efficiency of systems?</t>
+  </si>
+  <si>
+    <t>Are detective controls put in place to indicate problems in due time?</t>
+  </si>
+  <si>
+    <t>Do projections of future capacity requirements take account of new business and system requirements and current and projected trends in the organization's information processing capabilities?</t>
+  </si>
+  <si>
+    <t>Do managers monitor the utilization of key system resources, paying particular attention to any resources with long procurement lead times or high costs?</t>
+  </si>
+  <si>
+    <t>Do managers identify trends in usage, particularly in relation to business applications or management information system tools?</t>
+  </si>
+  <si>
+    <t>Do managers use this information to identify and avoid potential bottlenecks and dependence on key personnel that might present a threat to system security or services, and plan appropriate action?</t>
+  </si>
+  <si>
+    <t>System acceptance</t>
+  </si>
+  <si>
+    <t>Is acceptance criteria for new information systems, upgrades, and new versions established and suitable tests of the system(s) carried out during development and prior to acceptance?</t>
+  </si>
+  <si>
+    <t>Do managers ensure that the requirements and criteria for acceptance of new systems are clearly defined, agreed, documented, and tested?</t>
+  </si>
+  <si>
+    <t>Are new information systems, upgrades, and new versions only migrated into production after obtaining formal acceptance?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate prior to formal acceptance being provided:
+a) performance and computer capacity requirements;
+b) error recovery and restart procedures, and contingency plans;
+c) preparation and testing of routine operating procedures to defined standards;
+d) agreed set of security controls in place;
+e) effective manual procedures;
+f) business continuity arrangements;
+g) evidence that installation of the new system will not adversely affect existing systems, particularly at peak processing times, such as month end;
+h) evidence that consideration has been given to the effect the new system has on the overall security of the organization;
+i) training in the operation or use of new systems;
+j) ease of use, as this affects user performance and avoids human error?</t>
+  </si>
+  <si>
+    <t>For major new developments, are the operations function and users consulted at all stages in the development process to ensure the operational efficiency of the proposed system design?</t>
+  </si>
+  <si>
+    <t>Are appropriate tests carried out to confirm that all acceptance criteria have been fully satisfied?</t>
+  </si>
+  <si>
+    <t>Controls against malicious code</t>
+  </si>
+  <si>
+    <t>Precautions are required to prevent and detect the introduction of malicious code and unauthorized mobile code. 
+Software and information processing facilities are vulnerable to the introduction of malicious code, such as computer viruses, network worms, Trojan horses, and logic bombs. Users should be made aware of the dangers of malicious code. Managers should, where appropriate, introduce controls to prevent, detect, and remove malicious code and control mobile code.</t>
+  </si>
+  <si>
+    <t>Are detection, prevention, and recovery controls to protect against malicious code and appropriate user awareness procedures implemented?</t>
+  </si>
+  <si>
+    <t>Is protection against malicious code based on malicious code detection and repair software, security awareness, and appropriate system access and change management controls?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate prior to protect against malicious code:
+a) establishing a formal policy prohibiting the use of unauthorized software;
+b) establishing a formal policy to protect against risks associated with obtaining files and software either from or via external networks, or on any other medium, indicating what protective measures should be taken;
+c) conducting regular reviews of the software and data content of systems supporting critical business processes; the presence of any unapproved files or unauthorized amendments should be formally investigated;
+d) installation and regular update of malicious code detection and repair software to scan computers and media as a precautionary control, or on a routine basis; the checks carried out should include:
+1) checking any files on electronic or optical media, and files received over networks, for malicious code before use;
+2) checking electronic mail attachments and downloads for malicious code before use; this check should be carried out at different places, e.g. at electronic mail servers, desk top computers and when entering the network of the organization;
+3) checking web pages for malicious code;
+e) defining management procedures and responsibilities to deal with malicious code protection on systems, training in their use, reporting and recovering from malicious code attacks;
+f) preparing appropriate business continuity plans for recovering from malicious code attacks, including all necessary data and software back-up and recovery arrangements;
+g) implementing procedures to regularly collect information, such as subscribing to mailing lists and/or checking web sites giving information about new malicious code;
+h) implementing procedures to verify information relating to malicious code, and ensure that warning bulletins are accurate and informative; managers should ensure that qualified sources, e.g. reputable journals, reliable internet sites or suppliers producing software protecting against malicious code, are used to differentiate between hoaxes and real malicious code; all users should be made aware of the problem of hoaxes and what to do on receipt of them?</t>
+  </si>
+  <si>
+    <t>Is due care taken to protect against the introduction of malicious code during maintenance and emergency procedures, which may bypass normal malicious code protection controls?</t>
+  </si>
+  <si>
+    <t>Controls against mobile code</t>
+  </si>
+  <si>
+    <t>Where the use of mobile code is authorized, does the configuration ensure that the authorized mobile code operates according to a clearly defined security policy, and unauthorized
+mobile code is prevented from executing?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate prior to protect against mobile code performing unauthorized actions:
+a) executing mobile code in a logically isolated environment;
+b) blocking any use of mobile code;
+c) blocking receipt of mobile code;
+d) activating technical measures as available on a specific system to ensure mobile code is managed;
+e) controlling the resources available to mobile code access;
+f) cryptographic controls to uniquely authenticate mobile code?</t>
+  </si>
+  <si>
+    <t>Information back-up</t>
+  </si>
+  <si>
+    <t>Routine procedures should be established to implement the agreed back-up policy and strategy for taking back-up copies of data and rehearsing their timely restoration.</t>
+  </si>
+  <si>
+    <t>Are back-up copies of information and software taken and tested regularly in accordance with the agreed backup policy?</t>
+  </si>
+  <si>
+    <t>Is consideration given to the following items and implemented where appropriate for information back-up:
+a) the necessary level of back-up information should be defined;
+b) accurate and complete records of the back-up copies and documented restoration procedures should be produced;
+c) the extent (e.g. full or differential backup) and frequency of backups should reflect the business requirements of the organization, the security requirements of the information involved, and the criticality of the information to the continued operation of the organization;
+d) the back-ups should be stored in a remote location, at a sufficient distance to escape any damage from a disaster at the main site;
+e) back-up information should be given an appropriate level of physical and environmental protection consistent with the standards applied at the main site; the controls applied to media at the main site should be extended to cover the back-up site;
+f) back-up media should be regularly tested to ensure that they can be relied upon for emergency use when necessary;
+g) restoration procedures should be regularly checked and tested to ensure that they are effective and that they can be completed within the time allotted in the operational procedures for recovery;
+h) in situations where confidentiality is of importance, back-ups should be protected by means of encryption?</t>
+  </si>
+  <si>
+    <t>Are back-up arrangements for individual systems regularly tested to ensure that they meet the requirements of business continuity plans?</t>
+  </si>
+  <si>
+    <t>For critical systems, do the backup arrangements cover all systems information, applications, and data necessary to recover the complete system in the event of a disaster?</t>
+  </si>
+  <si>
+    <t>Is the retention period for essential business information, and also any requirement for archive copies to be permanently retained determined?</t>
+  </si>
+  <si>
+    <t>Are automated backup arrangements sufficiently tested prior to implementation and at regular intervals?</t>
+  </si>
+  <si>
+    <t>Network controls</t>
+  </si>
+  <si>
+    <t>The secure management of networks, which may span organizational boundaries, requires careful consideration to dataflow, legal implications, monitoring, and protection. 
+Additional controls may also be required to protect sensitive information passing over public networks.</t>
+  </si>
+  <si>
+    <t>Continue from PG 52</t>
+  </si>
+  <si>
+    <t>Management of removable media</t>
   </si>
   <si>
     <t>Whether procedures exist for management of ‎removable media, such as tapes, disks, ‎memory cards, and printed reports.</t>
@@ -281,46 +1327,76 @@
     <t>Whether all procedures and authorization levels are ‎clearly defined and documented.‎</t>
   </si>
   <si>
+    <t>Disposal of Media</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether the media that are no longer required are disposed of securely and safely, as per formal procedures. </t>
   </si>
   <si>
+    <t>Information handling procedures</t>
+  </si>
+  <si>
     <t>Whether a procedure exists for handling information ‎storage. ‎</t>
   </si>
   <si>
     <t>Does this procedure address issues, such as ‎information protection, from unauthorized disclosure ‎or misuse ‎</t>
   </si>
   <si>
+    <t>Security of system documentation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether the system documentation is protected against unauthorized access. </t>
   </si>
   <si>
+    <t>Information exchange policies and procedures</t>
+  </si>
+  <si>
     <t>Whether there is a formal exchange policy, procedure ‎and control in place to ensure the protection of ‎information.‎</t>
   </si>
   <si>
     <t>Does the procedure and control cover using electronic ‎communication facilities for information exchange. ‎</t>
   </si>
   <si>
+    <t>Exchange Agreements</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether agreements are established concerning ‎exchange of information and software between the ‎organization and external parties. </t>
   </si>
   <si>
     <t>Whether the security content of the agreement reflects ‎the sensitivity of the business information involved.‎</t>
   </si>
   <si>
+    <t>Physical media in transit</t>
+  </si>
+  <si>
     <t>Whether media containing information is protected against unauthorized access, misuse or corruption during transportation beyond the organization’s physical boundary.</t>
+  </si>
+  <si>
+    <t>Electronic messaging</t>
   </si>
   <si>
     <t>Whether the information involved in electronic ‎messaging is well protected. ‎
 ‎(Electronic messaging includes but is not restricted to ‎Email, Electronic Data Interchange, Instant Messaging)‎</t>
   </si>
   <si>
+    <t>Business Information systems</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether policies and procedures are developed and enforced to protect information associated with the interconnection of business information systems. </t>
   </si>
   <si>
+    <t>Audit Logging</t>
+  </si>
+  <si>
     <t>Whether audit logs recording user activities, ‎exceptions, and information security events are ‎produced and kept for an agreed period to assist in ‎future investigations and access control monitoring.‎</t>
   </si>
   <si>
     <t>Whether appropriate Privacy protection measures are ‎considered in Audit log maintenance. ‎</t>
   </si>
   <si>
+    <t>Monitoring system use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether procedures are developed and enforced for ‎monitoring system use for information processing ‎facility. </t>
   </si>
   <si>
@@ -330,33 +1406,54 @@
     <t>Whether the level of monitoring required for individual ‎information processing facility is determined by a risk ‎assessment‎</t>
   </si>
   <si>
+    <t>Protection of log information</t>
+  </si>
+  <si>
     <t>Whether logging facility and log information are well protected against tampering and unauthorized access</t>
   </si>
   <si>
+    <t>Administrator and operator log</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether system administrator and system operator ‎activities are logged. </t>
   </si>
   <si>
     <t>Whether the logged activities are reviewed on regular ‎basis.‎</t>
   </si>
   <si>
+    <t>Fault logging</t>
+  </si>
+  <si>
     <t>Whether faults are logged analysed and appropriate ‎action taken.‎</t>
   </si>
   <si>
     <t>Whether level of logging required for individual ‎system are determined by a risk assessment, taking ‎performance degradation into account.‎</t>
   </si>
   <si>
+    <t>Network Device Logs</t>
+  </si>
+  <si>
     <t>Whether network boundary devices, including firewalls, network-based IPS, and inbound and outbound proxies, are configured to verbosely log all traffic (both allowed and blocked) arriving at the device.</t>
   </si>
   <si>
+    <t>Centralized Log File Consolidation</t>
+  </si>
+  <si>
     <t>Whether a SIEM (Security Incident and Event Management) or log analytic tools for log aggregation and consolidation from multiple machines and for log correlation and analysis has been deployed.  Ensure that the log collection system does not lose events during peak activity, and that the system detects and alerts if event loss occurs.</t>
   </si>
   <si>
+    <t>Clock Synchronization</t>
+  </si>
+  <si>
     <t>Whether system clocks of all information processing ‎system within the organization or security domain is ‎synchronised with an agreed accurate time source.‎  ‎(The correct setting of computer clock is important to ‎ensure the accuracy of audit logs)‎</t>
   </si>
   <si>
     <t>Access Control</t>
   </si>
   <si>
+    <t>Access Control policy</t>
+  </si>
+  <si>
     <t>Whether an access control policy is developed and ‎reviewed based on the business and security ‎requirements.‎</t>
   </si>
   <si>
@@ -366,61 +1463,109 @@
     <t>Whether the users  were given a ‎clear statement of the business requirement to be met ‎by access controls‎</t>
   </si>
   <si>
+    <t>User Registration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether there is any formal user registration and de-registration procedure for granting access to all information systems and services. </t>
   </si>
   <si>
+    <t>Privilege Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether the allocation and use of any privileges in information system environment is restricted and controlled i.e., Privileges are allocated on need-to-use basis, privileges are allocated only after formal authorization process. </t>
   </si>
   <si>
+    <t>User Password Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">The allocation and reallocation of passwords should be controlled through a formal management process. </t>
   </si>
   <si>
     <t xml:space="preserve">Whether the users are asked to sign a statement to keep the password confidential. </t>
   </si>
   <si>
+    <t>Review of user access rights</t>
+  </si>
+  <si>
     <t>Whether there exists a process to review user access rights at regular intervals. Example: Special privilege review every 3 months, normal privileges every 6 months.</t>
   </si>
   <si>
+    <t>Data classification</t>
+  </si>
+  <si>
     <t>Whether the organization's data sets have not been classified in accordance with the organization's data classification standards (by business unit)</t>
   </si>
   <si>
+    <t>Business Sensitive Information</t>
+  </si>
+  <si>
     <t>Whether business sensitive data stored locally on workstations, on web application databases, or on shared folders is restricted to users or groups with a need to know.</t>
   </si>
   <si>
+    <t>Personally Identifiable Information (PII)</t>
+  </si>
+  <si>
     <t>Whether customer data stored locally on workstations, on web application databases,  or on shared folders is restricted to users or groups with a need to know.</t>
   </si>
   <si>
+    <t>Data Access Auditing</t>
+  </si>
+  <si>
     <t>Whether audit logging for access to nonpublic and business sensitive data is enabled on shared folders.</t>
   </si>
   <si>
+    <t>Detection/Notification on failed access</t>
+  </si>
+  <si>
     <t>Whether the system can detect attempts by users to access files on local systems or on shared folders without appropriate permissions.  Whether the system an generate an alert or email to administrative personnel when a user inappropriately accesses a file share.</t>
   </si>
   <si>
+    <t>Password use</t>
+  </si>
+  <si>
     <t>Whether there are any security practice in place to guide users in selecting and maintaining secure passwords</t>
+  </si>
+  <si>
+    <t>Unattended user equipment</t>
   </si>
   <si>
     <t>Whether the users and contractors are made aware of ‎the security requirements and procedures for protecting ‎unattended equipment. . ‎
 Example: Logoff when session is finished or set up ‎auto log off, terminate sessions when finished etc.,‎</t>
   </si>
   <si>
+    <t>Clear desk and clear screen policy</t>
+  </si>
+  <si>
     <t>Whether the organisation has adopted clear desk policy ‎with regards to papers and removable storage media</t>
   </si>
   <si>
     <t>Whether the organisation has adopted clear screen ‎policy with regards to information processing facility</t>
   </si>
   <si>
+    <t>Policy on use of network services</t>
+  </si>
+  <si>
     <t>Whether users are provided with access only to the ‎services that they have been specifically authorized to ‎use.</t>
   </si>
   <si>
     <t>Whether there exists a policy that does address ‎concerns relating to networks and network services. ‎</t>
   </si>
   <si>
+    <t>User authentication for external connections</t>
+  </si>
+  <si>
     <t>Whether appropriate authentication mechanism is used to control access by remote users.</t>
   </si>
   <si>
+    <t>Equipment identification in networks</t>
+  </si>
+  <si>
     <t>Whether all hardware devices on the network are actively managed (inventory, track, and correct)  so that only authorized devices are given access, and unauthorized and unmanaged devices are found and prevented from gaining access.</t>
   </si>
   <si>
+    <t>Segregation in networks</t>
+  </si>
+  <si>
     <t>Whether groups of information services, users and ‎information systems are segregated on networks.‎  Department VLANs?</t>
   </si>
   <si>
@@ -430,18 +1575,33 @@
     <t>Whether consideration is made to segregation of ‎wireless networks from internal and private networks. ‎  Whether consideration is made to segregation of VOIP devices from internal and private networks.</t>
   </si>
   <si>
+    <t>Network connection control</t>
+  </si>
+  <si>
     <t>Whether there exists an access control policy which states network connection control for shared networks, especially for those extend across organization’s boundaries.   Sharing between branch offices or not?</t>
   </si>
   <si>
+    <t>Account Review</t>
+  </si>
+  <si>
     <t>Whether user accounts are reviewed and disabled if the account cannot be associated with a business process and owner.</t>
   </si>
   <si>
+    <t>Account Reporting</t>
+  </si>
+  <si>
     <t>Whether reports are created that include a list of locked-out accounts, disabled accounts, accounts with passwords that exceed the maximum password age, and accounts with passwords that never expire. This list should be sent to the associated system administrator in a secure fashion</t>
   </si>
   <si>
+    <t>Account Revocation</t>
+  </si>
+  <si>
     <t>Whether a process for revoking system access by disabling accounts immediately upon termination of an employee or contractor exists. Disabling instead of deleting accounts allows preservation of audit trails.</t>
   </si>
   <si>
+    <t>User Identification and authentication</t>
+  </si>
+  <si>
     <t>Whether unique identifier (user ID) is provided to ‎every employee</t>
   </si>
   <si>
@@ -451,224 +1611,435 @@
     <t>Whether generic user accounts are supplied only under ‎exceptional circumstances where there is a clear ‎business benefit. Additional controls may be necessary ‎to maintain accountability.‎</t>
   </si>
   <si>
+    <t>Password Management system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether there exists a password management system that enforces various password controls such as: individual password for accountability, enforce password changes, store passwords in encrypted form, not display passwords on screen etc., </t>
   </si>
   <si>
+    <t>Use of system utilities</t>
+  </si>
+  <si>
     <t>Whether the utility programs that might be capable of overriding system and application controls is restricted and tightly controlled.  (mmc snap-ins, command line, powershell, etc…)</t>
+  </si>
+  <si>
+    <t>Session time-out</t>
   </si>
   <si>
     <t>Whether inactive session is shutdown after a defined ‎period of inactivity.‎
 PC Lender timeout?</t>
   </si>
   <si>
+    <t>Password Policy</t>
+  </si>
+  <si>
     <t>Whether it is required that all non-administrator accounts have strong passwords that contain letters, numbers, and special characters, be changed at least every 90 days, have a minimal age of one day, and not be allowed to use the previous 15 passwords as a new password. These values can be adjusted based on the specific business needs of the organization.</t>
   </si>
   <si>
+    <t>Account Lockout</t>
+  </si>
+  <si>
     <t>Use and configure account lockouts such that after a set number of failed login attempts the account is locked for a standard period of time.</t>
   </si>
   <si>
+    <t>Screen Lock</t>
+  </si>
+  <si>
     <t>Whether screen locks are configured on systems to limit access to unattended workstations.</t>
   </si>
   <si>
+    <t>Software identification on the network</t>
+  </si>
+  <si>
     <t>Whether software on computing assets are actively managed (inventory, track, and correct) so that only authorized software is installed and can execute, and that unauthorized and unmanaged software is found and prevented from installation or execution. SW inventory scanning?</t>
   </si>
   <si>
+    <t>Wireless Access Policy</t>
+  </si>
+  <si>
     <t>Where a specific business need for wireless access has been identified, configure wireless access on client machines to allow access only to authorized wireless networks.</t>
   </si>
   <si>
+    <t>Authorized Wireless Devices</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether each wireless devie connected to the network matches an authorized device in the hardware inventory with a documented owner and a defined business need.   </t>
   </si>
   <si>
+    <t>Wireless Access Point Scanning</t>
+  </si>
+  <si>
     <t>Whether network vulnerability scanning tools have been configured to detect wireless access points connected to the wired network. Identified devices should be reconciled against a list of authorized wireless access points. Unauthorized (i.e., rogue) access points should be deactivated.</t>
   </si>
   <si>
+    <t>Wireless Intrusion Detection System</t>
+  </si>
+  <si>
     <t>Whether a wireless intrusion detection systems (WIDS) is used to identify rogue wireless devices and detect attack attempts and successful compromises. In addition to WIDS, all wireless traffic should be monitored by WIDS as traffic passes into the wired network.</t>
   </si>
   <si>
+    <t>Disable Wireless capability</t>
+  </si>
+  <si>
     <t>For devices that do not have an essential wireless business purpose, disable wireless access in the hardware configuration (basic input/output system or extensible firmware interface), with password protections to lower the possibility that the user will override such configurations.</t>
   </si>
   <si>
+    <t>Default OFF setting on wireless interfaces</t>
+  </si>
+  <si>
     <t>Whether laptops with WLAN interfaces have the WLAN card radio set to OFF as the default setting.</t>
   </si>
   <si>
+    <t>Automatic connections to wireless networks</t>
+  </si>
+  <si>
     <t>Whether WLAN clients are configured to connect to other WLAN devices without the user initiating a request to establish such a connection.</t>
   </si>
   <si>
+    <t>Simultaneous use of wired and wireless interfaces</t>
+  </si>
+  <si>
     <t>Whether a device’s wired network interfaces (e.g., Ethernet) are disconnected or otherwise disabled when wireless connections are in use.</t>
   </si>
   <si>
+    <t>Encryption of Wireless Traffic</t>
+  </si>
+  <si>
     <t>Does all wireless traffic leverages at least Advanced Encryption Standard (AES) encryption used with at least Wi-Fi Protected Access 2 (WPA2) protection?</t>
   </si>
   <si>
+    <t>Peer-to-Peer Wireless</t>
+  </si>
+  <si>
     <t>Whether peer-to-peer wireless network capabilities on wireless clients has been disabled, unless such functionality meets a documented business need.</t>
   </si>
   <si>
+    <t>Wireless Peripheral Access</t>
+  </si>
+  <si>
     <t>Has wireless access (such as bluetooth) of peripheral devices been disabled, unless such access is required for a documented business need?</t>
   </si>
   <si>
+    <t>VLAN Separation of Wireless devices</t>
+  </si>
+  <si>
     <t>Have separate VLANs been created for BYOD systems or other untrusted devices?  Enterprise access from this VLAN should be treated as untrusted and filtered and audited accordingly.</t>
   </si>
   <si>
     <t>Computer and Network Defense</t>
   </si>
   <si>
+    <t>Automated Vulnerability Scanning</t>
+  </si>
+  <si>
     <t>Whether automated vulnerability scanning tools are run against all systems on the network on a weekly or more frequent basis and deliver prioritized lists of the most critical vulnerabilities to each responsible system administrator along with risk scores that compare the effectiveness of system administrators and departments in reducing risk.</t>
   </si>
   <si>
+    <t>Authenticated Vulnerability Scanning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether vulnerability scanning is performed in authenticated mode either with agents running locally on each end system to analyze the security configuration or with remote scanners that are given administrative rights on the system being tested. </t>
   </si>
   <si>
+    <t>Automated Patch Management</t>
+  </si>
+  <si>
     <t>Whether automated patch management tools and software update tools have been deployed for operating system and software/applications on all systems for which such tools are available and safe. Patches should be applied to all systems, even systems that are properly air gapped.</t>
   </si>
   <si>
+    <t>Vulnerability Awareness / Updates</t>
+  </si>
+  <si>
     <t>Subscribe to vulnerability intelligence services in order to stay aware of emerging exposures, and use the information gained from this subscription to update the organization's vulnerability scanning activities on at least a monthly basis. Alternatively, ensure that the vulnerability scanning tools you use are regularly updated with all relevant important security vulnerabilities.</t>
   </si>
   <si>
+    <t>Vulnerability Remediation</t>
+  </si>
+  <si>
     <t>Compare the results from back-to-back vulnerability scans to verify that vulnerabilities were addressed either by patching, implementing a compensating control, or documenting and accepting a reasonable business risk. Such acceptance of business risks for existing vulnerabilities should be periodically reviewed to determine if newer compensating controls or subsequent patches can address vulnerabilities that were previously accepted, or if conditions have changed, increasing the risk.</t>
   </si>
   <si>
+    <t>Enterprise Antivirus &amp; Antimalware Management</t>
+  </si>
+  <si>
     <t>Whether automated tools to continuously monitor workstations, servers, and mobile devices with anti-virus, anti-spyware, personal firewalls, and host-based IPS functionality have been employed. All malware detection events should be sent to enterprise anti-malware administration tools and event log servers.</t>
   </si>
   <si>
+    <t>Centralized Update Management</t>
+  </si>
+  <si>
     <t>Employ anti-malware software that offers a centralized infrastructure that compiles information on file reputations or have administrators manually push updates to all machines. After applying an update, automated systems should verify that each system has received its signature update.</t>
   </si>
   <si>
+    <t>Disable Autorun from removable media</t>
+  </si>
+  <si>
     <t>Configure laptops, workstations, and servers so that they will not auto-run content from removable media, like USB tokens (i.e., "thumb drives"), USB hard drives, CDs/DVDs, FireWire devices, external serial advanced technology attachment devices, and mounted network shares,.</t>
   </si>
   <si>
+    <t>Autoscan of Removable Media</t>
+  </si>
+  <si>
     <t>Whether systems are configured so that they automatically conduct an anti-malware scan of removable media when inserted.</t>
   </si>
   <si>
+    <t>Email attachment scanning</t>
+  </si>
+  <si>
     <t>Scan and block all e-mail attachments entering the organization's e-mail gateway if they contain malicious code or file types that are unnecessary for the organization's business. This scanning should be done before the e-mail is placed in the user's inbox. This includes e-mail content filtering and web content filtering.</t>
   </si>
   <si>
+    <t>External Device Usage &amp; Monitoring</t>
+  </si>
+  <si>
     <t>Wheter the use of external devices is limited to those that have a business need. Monitor for use and attempted use of external devices.</t>
   </si>
   <si>
+    <t>Operating System hardening</t>
+  </si>
+  <si>
     <t>Whether the operating system is security hardened prior to assignment to the end user.  Hardening typically includes: removal of unnecessary accounts (including service accounts), disabling or removal of unnecessary services, configuring non-executable stacks and heaps, applying patches, closing open and unused network ports, implementing intrusion detection systems and/or intrusion prevention systems, and use of host-based firewalls.</t>
   </si>
   <si>
+    <t>Automated software updating</t>
+  </si>
+  <si>
     <t>Whether automated patching tools and processes for both applications and for operating system software have been implemented. When outdated systems can no longer be patched, update to the latest version of application software. Remove outdated, older, and unused software from the system.</t>
   </si>
   <si>
+    <t>Secure Remote administration</t>
+  </si>
+  <si>
     <t>Does remote administration of servers, workstation, network devices, and similar equipment over secure channels?  Protocols such as telnet, VNC, RDP, or others that do not actively support strong encryption should only be used if they are performed over a secondary encryption channel, such as SSL or IPSEC.</t>
   </si>
   <si>
+    <t>File Integrity Checking</t>
+  </si>
+  <si>
     <t>Whether file integrity checking tools are utilized to ensure that critical system files (including sensitive system and application executables, libraries, and configurations) have not been altered. All alterations to such files should be automatically reported security personnel. The reporting system should have the ability to account for routine and expected changes, highlighting unusual or unexpected alterations.</t>
   </si>
   <si>
+    <t>System BIOS or system controllers Password Set</t>
+  </si>
+  <si>
     <t>System BIOS or system controllers supporting password protection must have administrator accounts/passwords configured, and no others.</t>
   </si>
   <si>
+    <t>Boot from removable media</t>
+  </si>
+  <si>
     <t>Whether the system is configured to not use removable media as the boot loader</t>
   </si>
   <si>
+    <t>System Configuration Management Tools</t>
+  </si>
+  <si>
     <t>Whether system configuration management tools (such as Active Directory Group Policy Objects) are utilized that will automatically enforce and redeploy configuration settings to systems at regularly scheduled intervals.</t>
   </si>
   <si>
+    <t>Secure Configuration</t>
+  </si>
+  <si>
     <t>Compare firewall, router, and switch configuration against standard secure configurations defined for each type of network device in use in the organization.   Any deviations from the standard configuration or updates to the standard configuration should be documented and approved in a change control system.</t>
+  </si>
+  <si>
+    <t>Network Diagram</t>
   </si>
   <si>
     <t>Whether a network diagram is maintained that identifies all network connections within the environment and to other networks, including any wireless networks.  Without current network diagrams, devices could 
 be overlooked and be unknowingly left out of implemented security controls.</t>
   </si>
   <si>
+    <t>Documented Configuration Rules</t>
+  </si>
+  <si>
     <t>All new configuration rules beyond a baseline-hardened configuration that allow traffic to flow through network security devices, such as firewalls and network-based IPS, should be documented and recorded in a configuration management system, with a specific business reason for each change, a specific individual's name responsible for that business need, and an expected duration of the need.</t>
   </si>
   <si>
+    <t>Configuration Review</t>
+  </si>
+  <si>
     <t>Whether network device configurations (router/firewall rulesets) are reviewed at least every six months to clean up any unneeded, outdated or incorrect rules, and ensure that the rulesets allow only authorized ports and services that match business justifications.</t>
   </si>
   <si>
+    <t>Secure and synchronize router 
+configuration files</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether network device configuration files (router/firewall rulesets) are secured from unauthorized access.  Whether these configuration files are synchronized (running config matches startup config on a router) </t>
   </si>
   <si>
+    <t>Session Security</t>
+  </si>
+  <si>
     <t>Whether network devices are managed using two-factor authentication and encrypted sessions.</t>
   </si>
   <si>
+    <t>Software Updates</t>
+  </si>
+  <si>
     <t>Whether automated tools are used to apply the latest stable version of any security-related update to network devices.</t>
   </si>
   <si>
+    <t>Management VLAN</t>
+  </si>
+  <si>
     <t>Manage the network infrastructure across network connections that are separated from the business use of that network, relying on separate VLANs or, preferably, on entirely different physical connectivity for management sessions for network devices.</t>
   </si>
   <si>
+    <t>Limit PPS on each system</t>
+  </si>
+  <si>
     <t>Ensure that only ports, protocols, and services with validated business needs are running on each networked asset.</t>
   </si>
   <si>
+    <t>Host-Based Firewall</t>
+  </si>
+  <si>
     <t>Apply host-based firewalls or port filtering tools on end systems, with a default-deny rule that drops all traffic except those services and ports that are explicitly allowed.</t>
   </si>
   <si>
+    <t>Automated Port Scanning</t>
+  </si>
+  <si>
     <t>Perform automated port scans on a regular basis against all networked assets and compared to a known effective baseline. If a change that is not listed on the organization's approved baseline is discovered, an alert should be generated and reviewed.</t>
   </si>
   <si>
+    <t>Service Minumization</t>
+  </si>
+  <si>
     <t>Keep all services up to date and uninstall and remove any unnecessary components from the system.</t>
   </si>
   <si>
+    <t>Administrator Privilege Use &amp; Monitoring</t>
+  </si>
+  <si>
     <t>Minimize administrative privileges and only use administrative accounts when they are required. Implement focused auditing on the use of administrative privileged functions and monitor for anomalous behavior.</t>
   </si>
   <si>
+    <t>Administrative Account Inventory</t>
+  </si>
+  <si>
     <t>Use automated tools to inventory all administrative accounts and validate that each person with administrative privileges on desktops, laptops, and servers is authorized by a manager.</t>
   </si>
   <si>
+    <t>Password complexity</t>
+  </si>
+  <si>
     <t>Configure all administrative passwords to be complex and contain letters, numbers, and special characters intermixed, and with no dictionary words present in the password. Pass phrases containing multiple dictionary words, along with special characters, are acceptable if they are of a reasonable length.</t>
   </si>
   <si>
+    <t>Default Administrator Passwords</t>
+  </si>
+  <si>
     <t>Before deploying any new devices in a networked environment, change all default passwords for applications, operating systems, routers, firewalls, wireless access points, and other systems to have values consistent with administration-level accounts. This also includes things like default SNMP community strings.</t>
   </si>
   <si>
+    <t>Hard Drive Encryption</t>
+  </si>
+  <si>
     <t>Whether an approved hard drive encryption software is deployed to mobile devices and systems that store sensitive data.</t>
   </si>
   <si>
+    <t>Cloud Provider Security</t>
+  </si>
+  <si>
     <t>Whether cloud provider security practices for data protection have been reviewed.  PC Lender? Dropbox?  Exchange?</t>
   </si>
   <si>
+    <t>Data in transit</t>
+  </si>
+  <si>
     <t>Whether data moved between networks is transmitted using secure, authenticated, and encrypted mechanisms.</t>
   </si>
   <si>
+    <t>No Write to USB Devices</t>
+  </si>
+  <si>
     <t>If there is no business need for supporting such devices, configure systems so that they will not write data to USB tokens or USB hard drives. If such devices are required, enterprise software should be used that can configure systems to allow only specific USB devices (based on serial number or other unique property) to be accessed, and that can automatically encrypt all data placed on such devices. An inventory of all authorized devices must be maintained.</t>
   </si>
   <si>
+    <t>Network Traffic Monitoring</t>
+  </si>
+  <si>
     <t>Monitor all traffic leaving the organization and detect any unauthorized use of encryption. Attackers often use an encrypted channel to bypass network security devices. Therefore it is essential that organizations be able to detect rogue connections, terminate the connection, and remediate the infected system.</t>
   </si>
   <si>
+    <t>External Websites</t>
+  </si>
+  <si>
     <t>Whether access to known file transfer and email exfiltration websites is blocked.</t>
   </si>
   <si>
+    <t>IP Address Blacklisting/Whitelisting</t>
+  </si>
+  <si>
     <t>Deny communications with (or limit data flow to) known malicious IP addresses (black lists), or limit access only to trusted sites (whitelists). Tests can be periodically carried out by sending packets from bogus source IP addresses (non-routable or otherwise unused IP addresses) into the network to verify that they are not transmitted through network perimeters. Lists of bogon IP addresses are publicly available on the Internet from various sources, and indicate a series of IP addresses that should not be used for legitimate traffic traversing the Internet.</t>
   </si>
   <si>
+    <t>Firewall Implementation</t>
+  </si>
+  <si>
     <t>Whether a firewall is implemented at each internet connection and between any DMZ and the internal network zone.</t>
   </si>
   <si>
+    <t>DMZ Traffic Monitoring</t>
+  </si>
+  <si>
     <t>On DMZ networks, configure monitoring systems (which may be built in to the IDS sensors or deployed as a separate technology) to record at least packet header information, and preferably full packet header and payloads of the traffic destined for or passing through the network border. This traffic should be sent to a properly configured Security Information Event Management (SIEM) or log analytics system so that events can be correlated from all devices on the network.</t>
   </si>
   <si>
+    <t>Network-based IDS</t>
+  </si>
+  <si>
     <t>Deploy network-based IDS sensors on Internet and extranet DMZ systems and networks that look for unusual attack mechanisms and detect compromise of these systems. These network-based IDS sensors may detect attacks through the use of signatures, network behavior analysis, or other mechanisms to analyze traffic.</t>
   </si>
   <si>
+    <t>Network-based IDS Blocking of bad traffic</t>
+  </si>
+  <si>
     <t>Network-based IPS devices should be deployed to complement IDS by blocking known bad signature or behavior of attacks. As attacks become automated, methods such as IDS typically delay the amount of time it takes for someone to react to an attack. A properly configured network-based IPS can provide automation to block bad traffic. When evaluating network-based IPS products, include those using techniques other than signature-based detection (such as virtual machine or sandbox-based approaches) for consideration.</t>
   </si>
   <si>
+    <t>Domain Name System Hierarchy</t>
+  </si>
+  <si>
     <t>Deploy domain name systems (DNS) in a hierarchical, structured fashion, with all internal network client machines configured to send requests to intranet DNS servers, not to DNS servers located on the Internet. These internal DNS servers should be configured to forward requests they cannot resolve to DNS servers located on a protected DMZ. These DMZ servers, in turn, should be the only DNS servers allowed to send requests to the Internet.</t>
   </si>
   <si>
+    <t>DMZ Proxy</t>
+  </si>
+  <si>
     <t>Design and implement network perimeters so that all outgoing web, file transfer protocol (FTP), and secure shell traffic to the Internet must pass through at least one proxy on a DMZ network. The proxy should support logging individual TCP sessions; blocking specific URLs, domain names, and IP addresses to implement a black list; and applying whitelists of allowed sites that can be accessed through the proxy while blocking all other sites. Organizations should force outbound traffic to the Internet through an authenticated proxy server on the enterprise perimeter. Proxies can also be used to encrypt all traffic leaving an organization.</t>
   </si>
   <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
     <t>Whether the enterprise network has been segmented into multiple, separate trust zones to provide more granular control of system access and additional intranet boundary defenses.</t>
   </si>
   <si>
     <t>Information Security Incident Management</t>
   </si>
   <si>
+    <t>Reporting information security events</t>
+  </si>
+  <si>
     <t>Whether information security events are reported ‎through appropriate management channels as quickly ‎as possible. ‎</t>
   </si>
   <si>
     <t>Whether formal information security event reporting ‎procedure, Incident response and escalation procedure ‎is developed and implemented. ‎</t>
   </si>
   <si>
+    <t>Reporting security weaknesses</t>
+  </si>
+  <si>
     <t>Whether there exists a procedure that ensures all ‎employees of information systems and services are ‎required to note and report any observed or suspected ‎security weakness in the system or services. ‎</t>
   </si>
   <si>
+    <t>Responsibilities and procedures</t>
+  </si>
+  <si>
     <t>Whether management responsibilities and procedures ‎were established to ensure quick, effective and orderly ‎response to information security incidents. ‎</t>
   </si>
   <si>
@@ -678,12 +2049,18 @@
     <t>Whether the objective of information security incident ‎management is agreed with the management.‎</t>
   </si>
   <si>
+    <t>Learning from information security incidents</t>
+  </si>
+  <si>
     <t>Whether there is a mechanism in place to identify and ‎quantify the type, volume and costs of information ‎security incidents.</t>
   </si>
   <si>
     <t>Whether the information gained from the evaluation of ‎the past information security incidents are used to ‎identify recurring or high impact incidents. ‎</t>
   </si>
   <si>
+    <t>Collection of evidence</t>
+  </si>
+  <si>
     <t>Whether follow-up action against a person or ‎organization after an information security incident ‎involves legal action (either civil or criminal). ‎</t>
   </si>
   <si>
@@ -696,21 +2073,33 @@
     <t>Business Continuity Management</t>
   </si>
   <si>
+    <t>Including informaiton security in the business continuity management process</t>
+  </si>
+  <si>
     <t>Whether there is a managed process in place that ‎addresses the information security requirements for ‎developing and maintaining business continuity ‎throughout the organization. ‎</t>
   </si>
   <si>
     <t>Whether this process understands the risks the ‎organization is facing, identify business critical assets, ‎identify incident impacts, consider the implementation ‎of additional preventative controls and documenting ‎the business continuity plans addressing the security ‎requirements.‎</t>
   </si>
   <si>
+    <t>Business continuity and risk assessement</t>
+  </si>
+  <si>
     <t>Whether events that cause interruption to business ‎process is identified along with the probability and ‎impact of such interruptions and their consequence for ‎information security.‎</t>
   </si>
   <si>
+    <t>Developing and implementing continuity plans including information security</t>
+  </si>
+  <si>
     <t>Whether plans were developed to maintain and restore ‎business operations, ensure availability of information ‎within the required level in the required time frame ‎following an interruption or failure to business ‎processes.</t>
   </si>
   <si>
     <t>Whether the plan considers identification and ‎agreement of responsibilities, identification of ‎acceptable loss, implementation of recovery and ‎restoration procedure, documentation of procedure and ‎regular testing.‎</t>
   </si>
   <si>
+    <t>Business continuity planning framework</t>
+  </si>
+  <si>
     <t>Whether there is a single framework of Business ‎continuity plan.‎</t>
   </si>
   <si>
@@ -720,13 +2109,19 @@
     <t>Whether business continuity plan addresses the ‎identified information security requirement. ‎</t>
   </si>
   <si>
+    <t>Testing maintaining and re-assessing business continuity plans</t>
+  </si>
+  <si>
     <t>Whether Business continuity plans are tested regularly ‎to ensure that they are up to date and effective.‎</t>
   </si>
   <si>
     <t>Whether business continuity plan tests ensure that all ‎members of the recovery team and other relevant staff ‎are aware of the plans and their responsibility for ‎business continuity and information security and know ‎their role when plan is evoked. ‎</t>
   </si>
   <si>
-    <t>Complaince</t>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Identification of applicable legislation</t>
   </si>
   <si>
     <t>Whether all relevant statutory, regulatory, contractual ‎requirements and organizational approach to meet the ‎requirements were explicitly defined and documented ‎for each information system and organization.</t>
@@ -735,6 +2130,9 @@
     <t>Whether specific controls and individual ‎responsibilities to meet these requirements were ‎defined and documented.‎</t>
   </si>
   <si>
+    <t>Intellectual property rights (IPR)</t>
+  </si>
+  <si>
     <t>Whether there are procedures to ensure compliance ‎with legislative, regulatory and contractual ‎requirements on the use of material in respect of which ‎there may be intellectual property rights and on the use ‎of proprietary software products. ‎</t>
   </si>
   <si>
@@ -744,6 +2142,9 @@
     <t>Whether controls such as: publishing intellectual ‎property rights compliance policy, procedures for ‎acquiring software, policy awareness, maintaining ‎proof of ownership, complying with software terms ‎and conditions are considered. ‎</t>
   </si>
   <si>
+    <t>Protection of organizational records</t>
+  </si>
+  <si>
     <t>Whether important records of the organization is ‎protected from loss destruction and falsification, in ‎accordance with statutory, regulatory, contractual and ‎business requirement.‎</t>
   </si>
   <si>
@@ -753,9 +2154,15 @@
     <t>Whether data storage systems were chosen so that ‎required data can be retrieved in an acceptable ‎timeframe and format, depending on requirements to ‎be fulfilled.‎</t>
   </si>
   <si>
+    <t>Data protection and privacy of personal information</t>
+  </si>
+  <si>
     <t>Whether data protection and privacy is ensured as per ‎relevant legislation, regulations and if applicable as per ‎the contractual clauses. ‎</t>
   </si>
   <si>
+    <t>Prevention of misuse of information processing facilities</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether use of information processing facilities for ‎any non-business or unauthorized purpose, without ‎management approval is treated as improper use of the ‎facility. </t>
   </si>
   <si>
@@ -765,34 +2172,46 @@
     <t>Whether legal advice is taken before implementing any ‎monitoring procedures.‎</t>
   </si>
   <si>
+    <t>Regulation of cryptographic controls</t>
+  </si>
+  <si>
     <t>Whether the cryptographic controls are used in ‎compliance with all relevant agreements, laws, and ‎regulations. ‎</t>
   </si>
   <si>
+    <t>Compliance with security policies and standards</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether managers ensure that all security procedures ‎within their area of responsibility are carried out ‎correctly to achieve compliance with security policies ‎and standards. </t>
   </si>
   <si>
     <t>Do managers regularly review the compliance of ‎information processing facility within their area of ‎responsibility for compliance with appropriate security ‎policy and procedure</t>
   </si>
   <si>
+    <t>Technical compliance checking</t>
+  </si>
+  <si>
     <t>Whether information systems are regularly checked for ‎compliance with security implementation standards. ‎</t>
   </si>
   <si>
     <t>Whether the technical compliance check is carried out ‎by, or under the supervision of, competent, authorized ‎personnel‎</t>
   </si>
   <si>
+    <t>Information systems audit control</t>
+  </si>
+  <si>
     <t>Whether audit requirements and activities involving ‎checks on operational systems should be carefully ‎planned and agreed to minimise the risk of disruptions ‎to business process. ‎</t>
   </si>
   <si>
     <t>Whether the audit requirements, scope are agreed with ‎appropriate management.‎</t>
   </si>
   <si>
+    <t>Protection of informaiton system audit tools</t>
+  </si>
+  <si>
     <t>Whether access to information system audit tools such ‎as software or data files are protected to prevent any ‎possible misuse or compromise.</t>
   </si>
   <si>
     <t>Whether information system audit tools are separated ‎from development and operational systems, unless ‎given an appropriate level of additional protection.‎</t>
-  </si>
-  <si>
-    <t>adfasdf</t>
   </si>
 </sst>
 </file>
@@ -1169,13 +2588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L235"/>
+  <dimension ref="A1:M429"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="12" width="10" customWidth="1"/>
+    <col min="1" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,1883 +2631,5202 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="s">
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" t="s">
+        <v>122</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" t="s">
+        <v>122</v>
       </c>
       <c r="E91" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" t="s">
+        <v>122</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s">
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" t="s">
+        <v>122</v>
       </c>
       <c r="E95" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" t="s">
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" t="s">
+        <v>136</v>
       </c>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" t="s">
+        <v>136</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
       </c>
       <c r="E99" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
       </c>
       <c r="E100" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
       </c>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" t="s">
+        <v>136</v>
       </c>
       <c r="E103" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" t="s">
+        <v>136</v>
       </c>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" t="s">
+        <v>136</v>
       </c>
       <c r="E105" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" t="s">
+        <v>136</v>
       </c>
       <c r="E106" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" t="s">
+        <v>136</v>
       </c>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" t="s">
+        <v>136</v>
       </c>
       <c r="E108" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" t="s">
+        <v>136</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" t="s">
+        <v>136</v>
       </c>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" t="s">
+        <v>154</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" t="s">
+        <v>154</v>
       </c>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" t="s">
+        <v>154</v>
       </c>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" t="s">
+        <v>154</v>
       </c>
       <c r="E114" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B115" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" t="s">
+        <v>154</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" t="s">
+        <v>154</v>
       </c>
       <c r="E116" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" t="s">
+        <v>154</v>
       </c>
       <c r="E118" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" t="s">
+        <v>154</v>
       </c>
       <c r="E119" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" t="s">
+        <v>154</v>
       </c>
       <c r="E120" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" t="s">
+        <v>154</v>
       </c>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B122" t="s">
+        <v>159</v>
+      </c>
+      <c r="D122" t="s">
+        <v>154</v>
       </c>
       <c r="E122" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B123" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" t="s">
+        <v>154</v>
       </c>
       <c r="E123" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B124" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124" t="s">
+        <v>154</v>
       </c>
       <c r="E124" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" t="s">
+        <v>154</v>
       </c>
       <c r="E125" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" t="s">
+        <v>154</v>
       </c>
       <c r="E126" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" t="s">
+        <v>154</v>
       </c>
       <c r="E127" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B128" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" t="s">
+        <v>175</v>
       </c>
       <c r="E128" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" t="s">
+        <v>175</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B130" t="s">
+        <v>178</v>
       </c>
       <c r="E130" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B131" t="s">
+        <v>178</v>
       </c>
       <c r="E131" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B132" t="s">
+        <v>178</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B133" t="s">
+        <v>178</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B134" t="s">
+        <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
       </c>
       <c r="E135" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>186</v>
       </c>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B137" t="s">
+        <v>186</v>
       </c>
       <c r="E137" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B138" t="s">
+        <v>186</v>
       </c>
       <c r="E138" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>186</v>
       </c>
       <c r="E139" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B140" t="s">
+        <v>186</v>
       </c>
       <c r="E140" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>186</v>
       </c>
       <c r="E141" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142" t="s">
+        <v>194</v>
       </c>
       <c r="E142" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B143" t="s">
+        <v>193</v>
+      </c>
+      <c r="D143" t="s">
+        <v>194</v>
       </c>
       <c r="E143" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B144" t="s">
+        <v>193</v>
+      </c>
+      <c r="D144" t="s">
+        <v>194</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B145" t="s">
+        <v>193</v>
+      </c>
+      <c r="D145" t="s">
+        <v>194</v>
       </c>
       <c r="E145" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>199</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>199</v>
       </c>
       <c r="E149" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>204</v>
       </c>
       <c r="E150" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>204</v>
       </c>
       <c r="E151" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>204</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>204</v>
       </c>
       <c r="E153" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>204</v>
       </c>
       <c r="E154" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>204</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>204</v>
       </c>
       <c r="E156" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B157" t="s">
+        <v>213</v>
+      </c>
+      <c r="D157" t="s">
+        <v>214</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="D158" t="s">
+        <v>214</v>
       </c>
       <c r="E158" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B159" t="s">
+        <v>213</v>
+      </c>
+      <c r="D159" t="s">
+        <v>214</v>
       </c>
       <c r="E159" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B160" t="s">
+        <v>218</v>
       </c>
       <c r="E160" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B161" t="s">
+        <v>218</v>
       </c>
       <c r="E161" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B162" t="s">
+        <v>221</v>
       </c>
       <c r="E162" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B163" t="s">
+        <v>221</v>
       </c>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B164" t="s">
+        <v>224</v>
       </c>
       <c r="E164" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B165" t="s">
+        <v>224</v>
       </c>
       <c r="E165" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B166" t="s">
+        <v>224</v>
       </c>
       <c r="E166" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B167" t="s">
+        <v>228</v>
       </c>
       <c r="E167" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B168" t="s">
+        <v>228</v>
       </c>
       <c r="E168" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B169" t="s">
+        <v>231</v>
       </c>
       <c r="E169" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B170" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" t="s">
+        <v>234</v>
       </c>
       <c r="E170" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B171" t="s">
+        <v>233</v>
+      </c>
+      <c r="D171" t="s">
+        <v>234</v>
       </c>
       <c r="E171" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B172" t="s">
+        <v>237</v>
       </c>
       <c r="E172" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B173" t="s">
+        <v>237</v>
       </c>
       <c r="E173" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B174" t="s">
+        <v>237</v>
       </c>
       <c r="E174" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B175" t="s">
+        <v>237</v>
       </c>
       <c r="E175" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B176" t="s">
+        <v>237</v>
       </c>
       <c r="E176" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B177" t="s">
+        <v>237</v>
       </c>
       <c r="E177" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B178" t="s">
+        <v>237</v>
       </c>
       <c r="E178" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B179" t="s">
+        <v>237</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B180" t="s">
+        <v>237</v>
       </c>
       <c r="E180" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B181" t="s">
+        <v>237</v>
       </c>
       <c r="E181" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B182" t="s">
+        <v>237</v>
       </c>
       <c r="E182" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B183" t="s">
+        <v>237</v>
       </c>
       <c r="E183" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B184" t="s">
+        <v>237</v>
       </c>
       <c r="E184" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B185" t="s">
+        <v>237</v>
       </c>
       <c r="E185" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B186" t="s">
+        <v>252</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B187" t="s">
+        <v>252</v>
       </c>
       <c r="E187" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B188" t="s">
+        <v>255</v>
       </c>
       <c r="E188" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B189" t="s">
+        <v>255</v>
       </c>
       <c r="E189" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B190" t="s">
+        <v>258</v>
       </c>
       <c r="E190" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B191" t="s">
+        <v>258</v>
       </c>
       <c r="E191" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B192" t="s">
+        <v>258</v>
       </c>
       <c r="E192" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="B193" t="s">
+        <v>258</v>
       </c>
       <c r="E193" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B194" t="s">
+        <v>263</v>
       </c>
       <c r="E194" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B195" t="s">
+        <v>263</v>
       </c>
       <c r="E195" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B196" t="s">
+        <v>263</v>
       </c>
       <c r="E196" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B197" t="s">
+        <v>267</v>
       </c>
       <c r="E197" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B198" t="s">
+        <v>267</v>
       </c>
       <c r="E198" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B199" t="s">
+        <v>267</v>
       </c>
       <c r="E199" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B200" t="s">
+        <v>267</v>
       </c>
       <c r="E200" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B201" t="s">
+        <v>267</v>
       </c>
       <c r="E201" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>273</v>
+      </c>
+      <c r="B202" t="s">
+        <v>274</v>
+      </c>
+      <c r="D202" t="s">
+        <v>275</v>
       </c>
       <c r="E202" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>213</v>
+        <v>273</v>
+      </c>
+      <c r="B203" t="s">
+        <v>274</v>
+      </c>
+      <c r="D203" t="s">
+        <v>275</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>273</v>
+      </c>
+      <c r="B204" t="s">
+        <v>274</v>
+      </c>
+      <c r="D204" t="s">
+        <v>275</v>
       </c>
       <c r="E204" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D205" t="s">
+        <v>275</v>
       </c>
       <c r="E205" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B206" t="s">
+        <v>274</v>
+      </c>
+      <c r="D206" t="s">
+        <v>275</v>
       </c>
       <c r="E206" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B207" t="s">
+        <v>281</v>
       </c>
       <c r="E207" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B208" t="s">
+        <v>281</v>
       </c>
       <c r="E208" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B209" t="s">
+        <v>281</v>
       </c>
       <c r="E209" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B210" t="s">
+        <v>281</v>
       </c>
       <c r="E210" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B211" t="s">
+        <v>281</v>
       </c>
       <c r="E211" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B212" t="s">
+        <v>281</v>
       </c>
       <c r="E212" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B213" t="s">
+        <v>288</v>
       </c>
       <c r="E213" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="B214" t="s">
+        <v>288</v>
       </c>
       <c r="E214" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B215" t="s">
+        <v>288</v>
       </c>
       <c r="E215" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B216" t="s">
+        <v>288</v>
       </c>
       <c r="E216" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B217" t="s">
+        <v>293</v>
       </c>
       <c r="E217" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B218" t="s">
+        <v>293</v>
       </c>
       <c r="E218" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B219" t="s">
+        <v>293</v>
       </c>
       <c r="E219" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B220" t="s">
+        <v>297</v>
+      </c>
+      <c r="D220" t="s">
+        <v>298</v>
       </c>
       <c r="E220" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B221" t="s">
+        <v>297</v>
+      </c>
+      <c r="D221" t="s">
+        <v>298</v>
       </c>
       <c r="E221" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B222" t="s">
+        <v>297</v>
+      </c>
+      <c r="D222" t="s">
+        <v>298</v>
       </c>
       <c r="E222" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B223" t="s">
+        <v>297</v>
+      </c>
+      <c r="D223" t="s">
+        <v>298</v>
       </c>
       <c r="E223" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B224" t="s">
+        <v>297</v>
+      </c>
+      <c r="D224" t="s">
+        <v>298</v>
       </c>
       <c r="E224" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B225" t="s">
+        <v>304</v>
       </c>
       <c r="E225" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B226" t="s">
+        <v>304</v>
       </c>
       <c r="E226" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B227" t="s">
+        <v>304</v>
       </c>
       <c r="E227" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B228" t="s">
+        <v>304</v>
       </c>
       <c r="E228" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B229" t="s">
+        <v>304</v>
       </c>
       <c r="E229" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B230" t="s">
+        <v>304</v>
       </c>
       <c r="E230" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B231" t="s">
+        <v>304</v>
       </c>
       <c r="E231" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B232" t="s">
+        <v>304</v>
       </c>
       <c r="E232" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B233" t="s">
+        <v>304</v>
       </c>
       <c r="E233" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B234" t="s">
+        <v>304</v>
       </c>
       <c r="E234" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>273</v>
+      </c>
+      <c r="B235" t="s">
+        <v>315</v>
       </c>
       <c r="E235" t="s">
-        <v>257</v>
-      </c>
-      <c r="F235" t="s">
-        <v>258</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>273</v>
+      </c>
+      <c r="B236" t="s">
+        <v>315</v>
+      </c>
+      <c r="E236" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>273</v>
+      </c>
+      <c r="B237" t="s">
+        <v>318</v>
+      </c>
+      <c r="D237" t="s">
+        <v>319</v>
+      </c>
+      <c r="E237" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>273</v>
+      </c>
+      <c r="B238" t="s">
+        <v>318</v>
+      </c>
+      <c r="D238" t="s">
+        <v>319</v>
+      </c>
+      <c r="E238" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>273</v>
+      </c>
+      <c r="B239" t="s">
+        <v>318</v>
+      </c>
+      <c r="D239" t="s">
+        <v>319</v>
+      </c>
+      <c r="E239" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>273</v>
+      </c>
+      <c r="B240" t="s">
+        <v>318</v>
+      </c>
+      <c r="D240" t="s">
+        <v>319</v>
+      </c>
+      <c r="E240" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>273</v>
+      </c>
+      <c r="B241" t="s">
+        <v>318</v>
+      </c>
+      <c r="D241" t="s">
+        <v>319</v>
+      </c>
+      <c r="E241" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>273</v>
+      </c>
+      <c r="B242" t="s">
+        <v>318</v>
+      </c>
+      <c r="D242" t="s">
+        <v>319</v>
+      </c>
+      <c r="E242" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>273</v>
+      </c>
+      <c r="B243" t="s">
+        <v>318</v>
+      </c>
+      <c r="D243" t="s">
+        <v>319</v>
+      </c>
+      <c r="E243" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>273</v>
+      </c>
+      <c r="B244" t="s">
+        <v>318</v>
+      </c>
+      <c r="D244" t="s">
+        <v>319</v>
+      </c>
+      <c r="E244" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>273</v>
+      </c>
+      <c r="B245" t="s">
+        <v>328</v>
+      </c>
+      <c r="E245" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>273</v>
+      </c>
+      <c r="B246" t="s">
+        <v>328</v>
+      </c>
+      <c r="E246" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>273</v>
+      </c>
+      <c r="B247" t="s">
+        <v>328</v>
+      </c>
+      <c r="E247" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>273</v>
+      </c>
+      <c r="B248" t="s">
+        <v>328</v>
+      </c>
+      <c r="E248" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>273</v>
+      </c>
+      <c r="B249" t="s">
+        <v>328</v>
+      </c>
+      <c r="E249" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>273</v>
+      </c>
+      <c r="B250" t="s">
+        <v>328</v>
+      </c>
+      <c r="E250" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>273</v>
+      </c>
+      <c r="B251" t="s">
+        <v>335</v>
+      </c>
+      <c r="D251" t="s">
+        <v>336</v>
+      </c>
+      <c r="E251" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>273</v>
+      </c>
+      <c r="B252" t="s">
+        <v>335</v>
+      </c>
+      <c r="D252" t="s">
+        <v>336</v>
+      </c>
+      <c r="E252" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>273</v>
+      </c>
+      <c r="B253" t="s">
+        <v>335</v>
+      </c>
+      <c r="D253" t="s">
+        <v>336</v>
+      </c>
+      <c r="E253" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>273</v>
+      </c>
+      <c r="B254" t="s">
+        <v>335</v>
+      </c>
+      <c r="D254" t="s">
+        <v>336</v>
+      </c>
+      <c r="E254" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>273</v>
+      </c>
+      <c r="B255" t="s">
+        <v>341</v>
+      </c>
+      <c r="D255" t="s">
+        <v>336</v>
+      </c>
+      <c r="E255" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>273</v>
+      </c>
+      <c r="B256" t="s">
+        <v>341</v>
+      </c>
+      <c r="D256" t="s">
+        <v>336</v>
+      </c>
+      <c r="E256" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>273</v>
+      </c>
+      <c r="B257" t="s">
+        <v>344</v>
+      </c>
+      <c r="D257" t="s">
+        <v>345</v>
+      </c>
+      <c r="E257" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>273</v>
+      </c>
+      <c r="B258" t="s">
+        <v>344</v>
+      </c>
+      <c r="D258" t="s">
+        <v>345</v>
+      </c>
+      <c r="E258" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>273</v>
+      </c>
+      <c r="B259" t="s">
+        <v>344</v>
+      </c>
+      <c r="D259" t="s">
+        <v>345</v>
+      </c>
+      <c r="E259" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>273</v>
+      </c>
+      <c r="B260" t="s">
+        <v>344</v>
+      </c>
+      <c r="D260" t="s">
+        <v>345</v>
+      </c>
+      <c r="E260" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>273</v>
+      </c>
+      <c r="B261" t="s">
+        <v>344</v>
+      </c>
+      <c r="D261" t="s">
+        <v>345</v>
+      </c>
+      <c r="E261" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>273</v>
+      </c>
+      <c r="B262" t="s">
+        <v>344</v>
+      </c>
+      <c r="D262" t="s">
+        <v>345</v>
+      </c>
+      <c r="E262" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>273</v>
+      </c>
+      <c r="B263" t="s">
+        <v>352</v>
+      </c>
+      <c r="D263" t="s">
+        <v>353</v>
+      </c>
+      <c r="E263" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>273</v>
+      </c>
+      <c r="B264" t="s">
+        <v>355</v>
+      </c>
+      <c r="E264" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265" t="s">
+        <v>355</v>
+      </c>
+      <c r="E265" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B266" t="s">
+        <v>358</v>
+      </c>
+      <c r="E266" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>273</v>
+      </c>
+      <c r="B267" t="s">
+        <v>360</v>
+      </c>
+      <c r="E267" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" t="s">
+        <v>360</v>
+      </c>
+      <c r="E268" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" t="s">
+        <v>363</v>
+      </c>
+      <c r="E269" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" t="s">
+        <v>365</v>
+      </c>
+      <c r="E270" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" t="s">
+        <v>365</v>
+      </c>
+      <c r="E271" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>368</v>
+      </c>
+      <c r="E272" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>368</v>
+      </c>
+      <c r="E273" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>371</v>
+      </c>
+      <c r="E274" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>373</v>
+      </c>
+      <c r="E275" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>273</v>
+      </c>
+      <c r="B276" t="s">
+        <v>375</v>
+      </c>
+      <c r="E276" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277" t="s">
+        <v>377</v>
+      </c>
+      <c r="E277" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>273</v>
+      </c>
+      <c r="B278" t="s">
+        <v>377</v>
+      </c>
+      <c r="E278" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>273</v>
+      </c>
+      <c r="B279" t="s">
+        <v>380</v>
+      </c>
+      <c r="E279" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>273</v>
+      </c>
+      <c r="B280" t="s">
+        <v>380</v>
+      </c>
+      <c r="E280" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>273</v>
+      </c>
+      <c r="B281" t="s">
+        <v>380</v>
+      </c>
+      <c r="E281" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>273</v>
+      </c>
+      <c r="B282" t="s">
+        <v>384</v>
+      </c>
+      <c r="E282" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>273</v>
+      </c>
+      <c r="B283" t="s">
+        <v>386</v>
+      </c>
+      <c r="E283" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>273</v>
+      </c>
+      <c r="B284" t="s">
+        <v>386</v>
+      </c>
+      <c r="E284" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>273</v>
+      </c>
+      <c r="B285" t="s">
+        <v>389</v>
+      </c>
+      <c r="E285" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>273</v>
+      </c>
+      <c r="B286" t="s">
+        <v>389</v>
+      </c>
+      <c r="E286" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>273</v>
+      </c>
+      <c r="B287" t="s">
+        <v>392</v>
+      </c>
+      <c r="E287" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>273</v>
+      </c>
+      <c r="B288" t="s">
+        <v>394</v>
+      </c>
+      <c r="E288" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>273</v>
+      </c>
+      <c r="B289" t="s">
+        <v>396</v>
+      </c>
+      <c r="E289" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>398</v>
+      </c>
+      <c r="B290" t="s">
+        <v>399</v>
+      </c>
+      <c r="E290" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>398</v>
+      </c>
+      <c r="B291" t="s">
+        <v>399</v>
+      </c>
+      <c r="E291" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>398</v>
+      </c>
+      <c r="B292" t="s">
+        <v>399</v>
+      </c>
+      <c r="E292" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>398</v>
+      </c>
+      <c r="B293" t="s">
+        <v>403</v>
+      </c>
+      <c r="E293" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>398</v>
+      </c>
+      <c r="B294" t="s">
+        <v>405</v>
+      </c>
+      <c r="E294" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>398</v>
+      </c>
+      <c r="B295" t="s">
+        <v>407</v>
+      </c>
+      <c r="E295" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>398</v>
+      </c>
+      <c r="B296" t="s">
+        <v>407</v>
+      </c>
+      <c r="E296" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>398</v>
+      </c>
+      <c r="B297" t="s">
+        <v>410</v>
+      </c>
+      <c r="E297" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>398</v>
+      </c>
+      <c r="B298" t="s">
+        <v>412</v>
+      </c>
+      <c r="E298" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>398</v>
+      </c>
+      <c r="B299" t="s">
+        <v>414</v>
+      </c>
+      <c r="E299" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>398</v>
+      </c>
+      <c r="B300" t="s">
+        <v>416</v>
+      </c>
+      <c r="E300" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>398</v>
+      </c>
+      <c r="B301" t="s">
+        <v>418</v>
+      </c>
+      <c r="E301" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>398</v>
+      </c>
+      <c r="B302" t="s">
+        <v>420</v>
+      </c>
+      <c r="E302" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>398</v>
+      </c>
+      <c r="B303" t="s">
+        <v>422</v>
+      </c>
+      <c r="E303" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>398</v>
+      </c>
+      <c r="B304" t="s">
+        <v>424</v>
+      </c>
+      <c r="E304" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>398</v>
+      </c>
+      <c r="B305" t="s">
+        <v>426</v>
+      </c>
+      <c r="E305" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>398</v>
+      </c>
+      <c r="B306" t="s">
+        <v>426</v>
+      </c>
+      <c r="E306" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>398</v>
+      </c>
+      <c r="B307" t="s">
+        <v>429</v>
+      </c>
+      <c r="E307" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>398</v>
+      </c>
+      <c r="B308" t="s">
+        <v>429</v>
+      </c>
+      <c r="E308" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>398</v>
+      </c>
+      <c r="B309" t="s">
+        <v>432</v>
+      </c>
+      <c r="E309" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>398</v>
+      </c>
+      <c r="B310" t="s">
+        <v>434</v>
+      </c>
+      <c r="E310" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>398</v>
+      </c>
+      <c r="B311" t="s">
+        <v>436</v>
+      </c>
+      <c r="E311" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>398</v>
+      </c>
+      <c r="B312" t="s">
+        <v>436</v>
+      </c>
+      <c r="E312" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>398</v>
+      </c>
+      <c r="B313" t="s">
+        <v>436</v>
+      </c>
+      <c r="E313" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>398</v>
+      </c>
+      <c r="B314" t="s">
+        <v>440</v>
+      </c>
+      <c r="E314" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>398</v>
+      </c>
+      <c r="B315" t="s">
+        <v>442</v>
+      </c>
+      <c r="E315" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>398</v>
+      </c>
+      <c r="B316" t="s">
+        <v>444</v>
+      </c>
+      <c r="E316" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>398</v>
+      </c>
+      <c r="B317" t="s">
+        <v>446</v>
+      </c>
+      <c r="E317" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>398</v>
+      </c>
+      <c r="B318" t="s">
+        <v>448</v>
+      </c>
+      <c r="E318" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>398</v>
+      </c>
+      <c r="B319" t="s">
+        <v>448</v>
+      </c>
+      <c r="E319" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>398</v>
+      </c>
+      <c r="B320" t="s">
+        <v>448</v>
+      </c>
+      <c r="E320" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>398</v>
+      </c>
+      <c r="B321" t="s">
+        <v>452</v>
+      </c>
+      <c r="E321" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>398</v>
+      </c>
+      <c r="B322" t="s">
+        <v>454</v>
+      </c>
+      <c r="E322" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>398</v>
+      </c>
+      <c r="B323" t="s">
+        <v>456</v>
+      </c>
+      <c r="E323" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>398</v>
+      </c>
+      <c r="B324" t="s">
+        <v>458</v>
+      </c>
+      <c r="E324" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>398</v>
+      </c>
+      <c r="B325" t="s">
+        <v>460</v>
+      </c>
+      <c r="E325" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>398</v>
+      </c>
+      <c r="B326" t="s">
+        <v>462</v>
+      </c>
+      <c r="E326" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>398</v>
+      </c>
+      <c r="B327" t="s">
+        <v>464</v>
+      </c>
+      <c r="E327" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>398</v>
+      </c>
+      <c r="B328" t="s">
+        <v>466</v>
+      </c>
+      <c r="E328" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>398</v>
+      </c>
+      <c r="B329" t="s">
+        <v>468</v>
+      </c>
+      <c r="E329" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>398</v>
+      </c>
+      <c r="B330" t="s">
+        <v>470</v>
+      </c>
+      <c r="E330" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>398</v>
+      </c>
+      <c r="B331" t="s">
+        <v>472</v>
+      </c>
+      <c r="E331" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>398</v>
+      </c>
+      <c r="B332" t="s">
+        <v>474</v>
+      </c>
+      <c r="E332" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>398</v>
+      </c>
+      <c r="B333" t="s">
+        <v>476</v>
+      </c>
+      <c r="E333" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>398</v>
+      </c>
+      <c r="B334" t="s">
+        <v>478</v>
+      </c>
+      <c r="E334" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>398</v>
+      </c>
+      <c r="B335" t="s">
+        <v>480</v>
+      </c>
+      <c r="E335" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>398</v>
+      </c>
+      <c r="B336" t="s">
+        <v>482</v>
+      </c>
+      <c r="E336" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>398</v>
+      </c>
+      <c r="B337" t="s">
+        <v>484</v>
+      </c>
+      <c r="E337" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>398</v>
+      </c>
+      <c r="B338" t="s">
+        <v>486</v>
+      </c>
+      <c r="E338" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>398</v>
+      </c>
+      <c r="B339" t="s">
+        <v>488</v>
+      </c>
+      <c r="E339" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>490</v>
+      </c>
+      <c r="B340" t="s">
+        <v>491</v>
+      </c>
+      <c r="E340" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>490</v>
+      </c>
+      <c r="B341" t="s">
+        <v>493</v>
+      </c>
+      <c r="E341" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>490</v>
+      </c>
+      <c r="B342" t="s">
+        <v>495</v>
+      </c>
+      <c r="E342" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>490</v>
+      </c>
+      <c r="B343" t="s">
+        <v>497</v>
+      </c>
+      <c r="E343" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>490</v>
+      </c>
+      <c r="B344" t="s">
+        <v>499</v>
+      </c>
+      <c r="E344" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>490</v>
+      </c>
+      <c r="B345" t="s">
+        <v>501</v>
+      </c>
+      <c r="E345" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>490</v>
+      </c>
+      <c r="B346" t="s">
+        <v>503</v>
+      </c>
+      <c r="E346" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>490</v>
+      </c>
+      <c r="B347" t="s">
+        <v>505</v>
+      </c>
+      <c r="E347" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>490</v>
+      </c>
+      <c r="B348" t="s">
+        <v>507</v>
+      </c>
+      <c r="E348" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>490</v>
+      </c>
+      <c r="B349" t="s">
+        <v>509</v>
+      </c>
+      <c r="E349" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>490</v>
+      </c>
+      <c r="B350" t="s">
+        <v>511</v>
+      </c>
+      <c r="E350" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>490</v>
+      </c>
+      <c r="B351" t="s">
+        <v>513</v>
+      </c>
+      <c r="E351" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>490</v>
+      </c>
+      <c r="B352" t="s">
+        <v>515</v>
+      </c>
+      <c r="E352" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>490</v>
+      </c>
+      <c r="B353" t="s">
+        <v>517</v>
+      </c>
+      <c r="E353" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>490</v>
+      </c>
+      <c r="B354" t="s">
+        <v>519</v>
+      </c>
+      <c r="E354" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>490</v>
+      </c>
+      <c r="B355" t="s">
+        <v>521</v>
+      </c>
+      <c r="E355" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>490</v>
+      </c>
+      <c r="B356" t="s">
+        <v>523</v>
+      </c>
+      <c r="E356" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>490</v>
+      </c>
+      <c r="B357" t="s">
+        <v>525</v>
+      </c>
+      <c r="E357" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>490</v>
+      </c>
+      <c r="B358" t="s">
+        <v>527</v>
+      </c>
+      <c r="E358" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>490</v>
+      </c>
+      <c r="B359" t="s">
+        <v>529</v>
+      </c>
+      <c r="E359" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>490</v>
+      </c>
+      <c r="B360" t="s">
+        <v>531</v>
+      </c>
+      <c r="E360" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>490</v>
+      </c>
+      <c r="B361" t="s">
+        <v>533</v>
+      </c>
+      <c r="E361" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>490</v>
+      </c>
+      <c r="B362" t="s">
+        <v>535</v>
+      </c>
+      <c r="E362" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>490</v>
+      </c>
+      <c r="B363" t="s">
+        <v>537</v>
+      </c>
+      <c r="E363" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>490</v>
+      </c>
+      <c r="B364" t="s">
+        <v>539</v>
+      </c>
+      <c r="E364" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>490</v>
+      </c>
+      <c r="B365" t="s">
+        <v>541</v>
+      </c>
+      <c r="E365" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>490</v>
+      </c>
+      <c r="B366" t="s">
+        <v>543</v>
+      </c>
+      <c r="E366" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>490</v>
+      </c>
+      <c r="B367" t="s">
+        <v>545</v>
+      </c>
+      <c r="E367" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>490</v>
+      </c>
+      <c r="B368" t="s">
+        <v>547</v>
+      </c>
+      <c r="E368" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>490</v>
+      </c>
+      <c r="B369" t="s">
+        <v>549</v>
+      </c>
+      <c r="E369" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>490</v>
+      </c>
+      <c r="B370" t="s">
+        <v>551</v>
+      </c>
+      <c r="E370" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>490</v>
+      </c>
+      <c r="B371" t="s">
+        <v>553</v>
+      </c>
+      <c r="E371" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>490</v>
+      </c>
+      <c r="B372" t="s">
+        <v>555</v>
+      </c>
+      <c r="E372" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>490</v>
+      </c>
+      <c r="B373" t="s">
+        <v>557</v>
+      </c>
+      <c r="E373" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>490</v>
+      </c>
+      <c r="B374" t="s">
+        <v>559</v>
+      </c>
+      <c r="E374" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>490</v>
+      </c>
+      <c r="B375" t="s">
+        <v>561</v>
+      </c>
+      <c r="E375" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>490</v>
+      </c>
+      <c r="B376" t="s">
+        <v>563</v>
+      </c>
+      <c r="E376" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>490</v>
+      </c>
+      <c r="B377" t="s">
+        <v>565</v>
+      </c>
+      <c r="E377" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>490</v>
+      </c>
+      <c r="B378" t="s">
+        <v>567</v>
+      </c>
+      <c r="E378" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>490</v>
+      </c>
+      <c r="B379" t="s">
+        <v>569</v>
+      </c>
+      <c r="E379" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>490</v>
+      </c>
+      <c r="B380" t="s">
+        <v>571</v>
+      </c>
+      <c r="E380" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>490</v>
+      </c>
+      <c r="B381" t="s">
+        <v>573</v>
+      </c>
+      <c r="E381" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>490</v>
+      </c>
+      <c r="B382" t="s">
+        <v>575</v>
+      </c>
+      <c r="E382" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>490</v>
+      </c>
+      <c r="B383" t="s">
+        <v>577</v>
+      </c>
+      <c r="E383" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>490</v>
+      </c>
+      <c r="B384" t="s">
+        <v>579</v>
+      </c>
+      <c r="E384" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>490</v>
+      </c>
+      <c r="B385" t="s">
+        <v>581</v>
+      </c>
+      <c r="E385" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>490</v>
+      </c>
+      <c r="B386" t="s">
+        <v>583</v>
+      </c>
+      <c r="E386" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>490</v>
+      </c>
+      <c r="B387" t="s">
+        <v>585</v>
+      </c>
+      <c r="E387" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>587</v>
+      </c>
+      <c r="B388" t="s">
+        <v>588</v>
+      </c>
+      <c r="E388" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>587</v>
+      </c>
+      <c r="B389" t="s">
+        <v>588</v>
+      </c>
+      <c r="E389" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>587</v>
+      </c>
+      <c r="B390" t="s">
+        <v>591</v>
+      </c>
+      <c r="E390" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>587</v>
+      </c>
+      <c r="B391" t="s">
+        <v>593</v>
+      </c>
+      <c r="E391" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>587</v>
+      </c>
+      <c r="B392" t="s">
+        <v>593</v>
+      </c>
+      <c r="E392" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>587</v>
+      </c>
+      <c r="B393" t="s">
+        <v>593</v>
+      </c>
+      <c r="E393" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>587</v>
+      </c>
+      <c r="B394" t="s">
+        <v>597</v>
+      </c>
+      <c r="E394" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>587</v>
+      </c>
+      <c r="B395" t="s">
+        <v>597</v>
+      </c>
+      <c r="E395" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>587</v>
+      </c>
+      <c r="B396" t="s">
+        <v>600</v>
+      </c>
+      <c r="E396" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>587</v>
+      </c>
+      <c r="B397" t="s">
+        <v>600</v>
+      </c>
+      <c r="E397" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>587</v>
+      </c>
+      <c r="B398" t="s">
+        <v>600</v>
+      </c>
+      <c r="E398" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>604</v>
+      </c>
+      <c r="B399" t="s">
+        <v>605</v>
+      </c>
+      <c r="E399" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>604</v>
+      </c>
+      <c r="B400" t="s">
+        <v>605</v>
+      </c>
+      <c r="E400" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>604</v>
+      </c>
+      <c r="B401" t="s">
+        <v>608</v>
+      </c>
+      <c r="E401" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>604</v>
+      </c>
+      <c r="B402" t="s">
+        <v>610</v>
+      </c>
+      <c r="E402" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>604</v>
+      </c>
+      <c r="B403" t="s">
+        <v>610</v>
+      </c>
+      <c r="E403" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>604</v>
+      </c>
+      <c r="B404" t="s">
+        <v>613</v>
+      </c>
+      <c r="E404" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>604</v>
+      </c>
+      <c r="B405" t="s">
+        <v>613</v>
+      </c>
+      <c r="E405" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>604</v>
+      </c>
+      <c r="B406" t="s">
+        <v>613</v>
+      </c>
+      <c r="E406" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>604</v>
+      </c>
+      <c r="B407" t="s">
+        <v>617</v>
+      </c>
+      <c r="E407" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>604</v>
+      </c>
+      <c r="B408" t="s">
+        <v>617</v>
+      </c>
+      <c r="E408" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>620</v>
+      </c>
+      <c r="B409" t="s">
+        <v>621</v>
+      </c>
+      <c r="E409" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>620</v>
+      </c>
+      <c r="B410" t="s">
+        <v>621</v>
+      </c>
+      <c r="E410" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>620</v>
+      </c>
+      <c r="B411" t="s">
+        <v>624</v>
+      </c>
+      <c r="E411" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>620</v>
+      </c>
+      <c r="B412" t="s">
+        <v>624</v>
+      </c>
+      <c r="E412" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>620</v>
+      </c>
+      <c r="B413" t="s">
+        <v>624</v>
+      </c>
+      <c r="E413" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>620</v>
+      </c>
+      <c r="B414" t="s">
+        <v>628</v>
+      </c>
+      <c r="E414" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>620</v>
+      </c>
+      <c r="B415" t="s">
+        <v>628</v>
+      </c>
+      <c r="E415" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>620</v>
+      </c>
+      <c r="B416" t="s">
+        <v>628</v>
+      </c>
+      <c r="E416" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>620</v>
+      </c>
+      <c r="B417" t="s">
+        <v>632</v>
+      </c>
+      <c r="E417" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>620</v>
+      </c>
+      <c r="B418" t="s">
+        <v>634</v>
+      </c>
+      <c r="E418" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>620</v>
+      </c>
+      <c r="B419" t="s">
+        <v>634</v>
+      </c>
+      <c r="E419" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>620</v>
+      </c>
+      <c r="B420" t="s">
+        <v>634</v>
+      </c>
+      <c r="E420" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>620</v>
+      </c>
+      <c r="B421" t="s">
+        <v>638</v>
+      </c>
+      <c r="E421" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>620</v>
+      </c>
+      <c r="B422" t="s">
+        <v>640</v>
+      </c>
+      <c r="E422" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>620</v>
+      </c>
+      <c r="B423" t="s">
+        <v>640</v>
+      </c>
+      <c r="E423" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>620</v>
+      </c>
+      <c r="B424" t="s">
+        <v>643</v>
+      </c>
+      <c r="E424" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>620</v>
+      </c>
+      <c r="B425" t="s">
+        <v>643</v>
+      </c>
+      <c r="E425" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>620</v>
+      </c>
+      <c r="B426" t="s">
+        <v>646</v>
+      </c>
+      <c r="E426" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>620</v>
+      </c>
+      <c r="B427" t="s">
+        <v>646</v>
+      </c>
+      <c r="E427" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>620</v>
+      </c>
+      <c r="B428" t="s">
+        <v>649</v>
+      </c>
+      <c r="E428" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>620</v>
+      </c>
+      <c r="B429" t="s">
+        <v>649</v>
+      </c>
+      <c r="E429" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2651,8 +2651,23 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2668,8 +2683,14 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2681,6 +2702,15 @@
       </c>
       <c r="F4" t="s">
         <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="653">
   <si>
     <t>domain</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Information security policy document</t>
+  </si>
+  <si>
+    <t>test source</t>
   </si>
   <si>
     <t>Management should set a clear policy direction in line with business objectives and demonstrate support for, and commitment to, information security through the issue and maintenance of an information security policy across the organization.</t>
@@ -2642,14 +2645,17 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2675,16 +2681,19 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>5</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -2698,10 +2707,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2721,10 +2730,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,10 +2744,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,10 +2758,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,10 +2772,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,10 +2786,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,10 +2800,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,13 +2811,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,13 +2825,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,13 +2839,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,13 +2853,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,13 +2867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2872,4991 +2881,4991 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E97" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E110" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D118" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D120" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E122" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D123" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E123" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E126" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E127" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D129" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E130" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E140" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E141" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D142" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D143" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D145" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E147" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E148" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E149" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E151" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E152" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E154" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E155" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B158" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D158" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B159" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E162" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B165" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E165" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B166" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B167" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E168" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E169" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E170" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B171" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E172" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E175" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E176" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E177" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E178" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E179" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E180" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E181" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E183" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B184" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E184" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E185" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E186" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E187" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E188" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B189" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E189" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E190" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E191" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E193" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B194" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E194" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E195" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E196" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E197" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E198" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B199" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E199" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B200" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E200" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E201" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D202" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D203" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E203" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D204" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E204" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D205" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E205" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B206" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D206" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E206" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B207" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E207" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E208" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E209" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E210" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B211" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E211" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B212" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E212" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B213" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E213" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B214" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E214" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B215" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E215" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E216" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B217" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E217" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B218" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E218" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B219" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E219" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B220" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D220" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E220" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B221" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D221" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E221" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B222" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D222" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E222" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D223" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E223" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B224" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D224" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E224" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E225" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B226" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E226" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B227" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E227" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B228" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E228" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B229" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E229" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B230" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E230" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B231" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E231" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B232" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E232" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B233" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E233" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B234" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E234" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B235" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E235" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B236" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E236" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B237" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D237" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E237" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B238" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D238" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E238" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B239" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D239" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E239" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B240" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D240" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E240" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D241" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E241" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D242" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E242" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B243" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D243" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E243" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B244" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D244" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E244" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E245" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E246" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E247" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B248" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E248" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B249" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E249" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B250" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E250" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D251" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E251" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D252" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B253" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D253" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E253" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B254" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D254" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D255" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E255" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D256" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E256" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D257" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E257" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D258" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E258" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B259" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D259" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E259" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B260" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D260" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E260" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B261" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D261" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E261" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D262" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E262" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D263" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E263" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E264" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E265" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B266" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E266" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B267" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E267" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E268" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E269" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E270" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E271" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E272" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E273" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E274" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E275" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E276" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E277" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E278" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E279" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E280" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E281" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B282" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E282" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B283" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E283" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B284" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E284" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B285" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E285" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B286" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E286" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B287" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E287" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B288" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E288" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B289" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E289" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B290" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E290" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B291" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E291" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E292" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B293" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E293" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B294" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E294" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B295" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E295" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B296" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E296" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E297" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B298" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E298" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B299" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E299" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B300" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E300" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B301" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E301" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B302" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E302" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B303" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E303" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B304" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E304" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B305" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E305" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B306" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E306" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B307" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E307" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B308" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E308" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B309" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E309" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B310" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E310" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B311" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E311" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E312" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B313" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E313" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B314" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E314" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B315" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E315" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B316" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E316" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B317" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E317" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B318" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E318" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B319" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E319" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B320" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E320" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B321" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E321" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B322" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E322" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B323" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E323" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B324" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E324" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B325" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E325" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B326" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E326" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B327" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E327" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B328" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E328" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B329" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E329" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B330" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B331" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E331" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B332" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E332" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B333" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B334" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E334" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B335" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E335" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B336" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E336" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B337" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E337" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B338" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E338" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B339" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E339" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B340" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E340" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B341" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E341" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B342" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E342" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B343" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E343" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B344" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E344" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B345" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E345" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B346" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E346" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B347" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E347" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B348" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E348" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B349" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E349" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B350" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E350" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B351" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E351" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B352" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E352" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B353" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E353" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B354" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E354" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B355" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E355" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B356" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E356" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B357" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E357" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B358" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E358" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B359" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E359" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B360" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E360" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B361" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E361" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B362" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E362" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B363" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E363" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B364" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E364" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B365" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E365" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B366" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E366" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B367" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E367" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B368" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E368" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B369" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E369" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B370" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E370" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B371" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E371" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B372" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E372" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B373" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E373" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B374" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E374" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B375" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E375" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B376" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E376" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B377" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E377" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B378" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E378" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B379" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E379" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B380" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E380" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B381" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E381" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B382" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E382" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B383" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E383" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B384" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E384" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B385" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E385" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B386" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E386" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B387" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E387" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B388" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E388" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B389" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E389" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B390" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E390" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B391" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E391" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B392" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E392" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B393" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E393" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B394" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E394" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B395" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E395" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B396" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E396" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B397" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E397" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B398" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E398" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B399" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E399" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B400" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E400" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B401" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E401" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B402" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E402" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B403" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E403" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B404" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E404" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B405" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E405" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B406" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E406" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B407" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E407" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B408" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E408" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B409" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E409" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B410" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E410" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B411" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E411" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B412" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E412" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B413" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E413" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B414" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E414" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B415" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E415" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B416" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E416" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B417" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E417" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B418" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E418" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B419" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E419" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B420" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E420" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B421" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E421" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B422" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E422" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B423" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E423" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B424" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E424" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B425" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E425" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B426" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E426" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B427" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E427" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B428" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E428" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B429" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E429" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3898,8 +3898,11 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3914,6 +3917,9 @@
       </c>
       <c r="E4" t="s">
         <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
